--- a/data/snapshot_clean.xlsx
+++ b/data/snapshot_clean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="State and Territory of Usual Residence " sheetId="1" state="visible" r:id="rId2"/>
@@ -21,12 +21,12 @@
     <sheet name="Household Composition and State and Territory of Enumeration" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Sex of Lone Persons and Age, Lone Person Households" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="State and Territory of Enumeration" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Sheet14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Sheet15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Sheet17" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Family Composition and State and Territory of Enumeration" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Sex of Lone Parent and State and Territory of Enumeration" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Same-Sex Couple Indicator and Count of All Children in Family" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Relationship in Household and Age" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Dwelling Structure and State and Territory of Enumeration" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Tenure type and State and Territory of Enumeration" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,1160 +38,1160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="420">
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New South Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queensland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Capital Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Capital City Statistical Areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Perth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Hobart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Darwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Greater Capital Cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-9 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-14 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-19 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-24 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-29 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-34 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-39 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-44 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-49 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-54 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-59 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-64 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-69 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-74 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-79 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-84 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85 years and over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persons</t>
+  </si>
   <si>
     <t xml:space="preserve">State and Territory of Usual Residence</t>
   </si>
   <si>
-    <t xml:space="preserve">New South Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queensland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasmania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian Capital Territory</t>
+    <t xml:space="preserve">Australia (c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal and Torres Strait Islander people(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Indigenous people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous status not stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State and territory of usual residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia(d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born in Australia(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born Overseas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania and Antarctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelie Land (France)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentinian Antarctic Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia (includes External Territories), nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Antarctic Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian External Territories, nec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Antarctic Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilean Antarctic Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanesia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norfolk Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania and Antarctica, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynesia (excludes Hawaii), nec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynesia (excludes Hawaii), nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Maud Land (Norway)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross Dependency (New Zealand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa, American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-West Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aland Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isle of Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-West Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Channel Islands and Isle of Man, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and Eastern Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy See</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Eastern Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and Eastern Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Europe, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Africa and the Middle East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaza Strip and West Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Africa and the Middle East, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Africa, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish North Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-East Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainland South-East Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maritime South-East Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South-East Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-East Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China (excludes SARs and Taiwan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Asia (includes Mongolia), nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong (SAR of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan and the Koreas, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Democratic People's Republic of (North)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of (South)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macau (SAR of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-East Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and Central Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and Central Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Asia, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americas, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central America, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern America, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America, nec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Barthelemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Martin (French part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands, British</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central and West Africa, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Democratic Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and East Africa, nec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern and East Africa, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Saharan Africa, nfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inadequately described</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other religions(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Religion(d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia (b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nil income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1-$149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$150-$299 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$300-$399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$400-$499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$500-$649 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$650-$799 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$800-$999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,000-$1,249 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,250-$1,499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,500-$1,749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,750-$1,999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2,000-$2,999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3,000 or more </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State and Territory of Enumeration</t>
   </si>
   <si>
     <t xml:space="preserve">Australia(b)</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Capital City Statistical Areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Brisbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Perth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Hobart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Darwin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Greater Capital Cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-4 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-9 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-14 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-19 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-24 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-29 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-34 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35-39 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-44 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-49 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-54 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-59 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-64 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-69 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-74 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75-79 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-84 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85 years and over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia (c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aboriginal and Torres Strait Islander people(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Indigenous people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigenous status not stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State and territory of usual residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia(d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born in Australia(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born Overseas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania and Antarctica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelie Land (France)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antarctica, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentinian Antarctic Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia (includes External Territories), nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian Antarctic Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian External Territories, nec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Antarctic Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilean Antarctic Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanesia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norfolk Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania and Antarctica, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitcairn Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polynesia (excludes Hawaii), nec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polynesia (excludes Hawaii), nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen Maud Land (Norway)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross Dependency (New Zealand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa, American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokelau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallis and Futuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-West Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aland Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faroe Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guernsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isle of Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-West Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Channel Islands and Isle of Man, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and Eastern Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibraltar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy See</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Eastern Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and Eastern Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Europe, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Africa and the Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaza Strip and West Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Africa and the Middle East, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Africa, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish North Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South-East Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei Darussalam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainland South-East Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maritime South-East Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South-East Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-East Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China (excludes SARs and Taiwan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Asia (includes Mongolia), nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong (SAR of China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan and the Koreas, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Democratic People's Republic of (North)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of (South)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macau (SAR of China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-East Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and Central Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Asia, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Americas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Americas, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anguilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central America, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkland Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadeloupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern America, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South America, nec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South America, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Barthelemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Martin (French part)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands, British</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central and West Africa, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Democratic Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and East Africa, nec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern and East Africa, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Helena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa, nfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inadequately described</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At sea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other religions(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Religion(d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia (b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1-$149 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$150-$299 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$300-$399 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$400-$499 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500-$649 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$650-$799 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$800-$999 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,000-$1,249 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,250-$1,499 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,500-$1,749 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,750-$1,999 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,000-$2,999 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3,000 or more </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State and Territory of Enumeration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Occupied private dwellings</t>
   </si>
   <si>
@@ -1223,18 +1223,94 @@
   </si>
   <si>
     <t xml:space="preserve">Average no. of people per household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple family with no children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple family with children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One parent family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total families(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male lone parent families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female lone parent families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total lone parent families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple families with children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple families without children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male same-sex couples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female same-sex couples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total same-sex couples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite-sex couples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband, wife or partner in same-sex couple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband, wife or partner in opposite-sex couple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-detached, row or terrace house, townhouse etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat or apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total households(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia (e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owned outright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owned with a mortgage(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rented(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Dwellings(d)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1357,7 +1433,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1478,6 +1554,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,23 +1602,24 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1843,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -1773,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +2030,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -1960,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,33 +2493,33 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="21" t="n">
         <v>52</v>
@@ -2455,7 +2552,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="23"/>
@@ -2467,10 +2564,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>6968</v>
@@ -2493,10 +2590,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>35957</v>
@@ -2519,10 +2616,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>61008</v>
@@ -2545,10 +2642,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>64271</v>
@@ -2571,10 +2668,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>67871</v>
@@ -2597,10 +2694,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>73725</v>
@@ -2623,10 +2720,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>79962</v>
@@ -2649,10 +2746,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="26" t="n">
         <v>84423</v>
@@ -2675,10 +2772,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>81478</v>
@@ -2701,10 +2798,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="26" t="n">
         <v>79520</v>
@@ -2727,10 +2824,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="26" t="n">
         <v>63419</v>
@@ -2753,10 +2850,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>50113</v>
@@ -2779,10 +2876,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>40556</v>
@@ -2805,10 +2902,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>36467</v>
@@ -2831,10 +2928,10 @@
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>33345</v>
@@ -2857,10 +2954,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="29" t="n">
         <v>859098</v>
@@ -2926,7 +3023,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -2953,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,17 +3139,361 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>459367</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>330019</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>244410</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>129672</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>127227</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>39651</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>9443</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>18857</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1358646</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>780385</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>607237</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>389358</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>190640</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>217660</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>62529</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>19889</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>40200</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2307898</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>191557</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>135232</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>94184</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>48193</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>51300</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>16399</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>5686</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>9761</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>552312</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>29391</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20977</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>13699</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>6210</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>6680</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1656</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>894</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>80040</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1460700</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1093465</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>741651</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>374715</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>402867</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>120235</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>35551</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>69712</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>4298896</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>709524</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>559717</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>481451</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>178588</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>247841</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>57849</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>18138</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>38438</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2291987</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
+        <v>887358</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>709965</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>518494</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>184733</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>292133</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>51286</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>23815</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>48008</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2716224</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
+        <v>310906</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>234596</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>201308</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>73128</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>93344</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>23423</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>8558</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>14129</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>959543</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="n">
+        <v>32438</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>27800</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>19898</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7282</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>10869</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1781</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1014</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1461</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>102559</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
+        <v>1940226</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1532077</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1221148</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>443733</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>644189</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>134343</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>51530</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>102036</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>6070316</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3068,17 +3509,239 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>50685</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>37741</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>33124</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>13210</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>15324</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>4228</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1678</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2687</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>158703</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>247220</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>181186</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>151423</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>56870</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>69742</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>18598</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>6932</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10915</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>742933</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>297905</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>218927</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>184547</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>70080</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>85066</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>22826</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>8610</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13602</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>901636</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>55256</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>41675</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>37195</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>14186</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>17072</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4541</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1753</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2846</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>174560</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
+        <v>255654</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>192921</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>164110</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>58944</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>76279</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>18879</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>6804</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>11281</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>784988</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
+        <v>310906</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>234596</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>201308</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>73128</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>93344</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>23423</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>8558</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>14129</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>959543</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3094,17 +3757,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>17081</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>17583</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>12551</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>16132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4083</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>29632</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>33715</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2530318</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2120670</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4650988</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>22676</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>23741</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>5853</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>17181</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>23029</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <v>6915</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>39859</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>46770</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <v>2709311</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2252130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4961435</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3120,7 +3901,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3130,7 +3911,272 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16"/>
+      <c r="B1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>464</v>
+      </c>
+      <c r="D5" s="32" t="n">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="32" t="n">
+        <v>5328</v>
+      </c>
+      <c r="D6" s="32" t="n">
+        <v>236820</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="32" t="n">
+        <v>11923</v>
+      </c>
+      <c r="D7" s="32" t="n">
+        <v>690931</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>13976</v>
+      </c>
+      <c r="D8" s="32" t="n">
+        <v>1027852</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="32" t="n">
+        <v>12238</v>
+      </c>
+      <c r="D9" s="32" t="n">
+        <v>1033797</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>11257</v>
+      </c>
+      <c r="D10" s="32" t="n">
+        <v>1049726</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>10751</v>
+      </c>
+      <c r="D11" s="32" t="n">
+        <v>1024383</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>9004</v>
+      </c>
+      <c r="D12" s="32" t="n">
+        <v>964915</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>6299</v>
+      </c>
+      <c r="D13" s="32" t="n">
+        <v>906830</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>4063</v>
+      </c>
+      <c r="D14" s="32" t="n">
+        <v>801930</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="32" t="n">
+        <v>2631</v>
+      </c>
+      <c r="D15" s="32" t="n">
+        <v>722477</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>1252</v>
+      </c>
+      <c r="D16" s="32" t="n">
+        <v>520334</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>537</v>
+      </c>
+      <c r="D17" s="32" t="n">
+        <v>348972</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>236</v>
+      </c>
+      <c r="D18" s="32" t="n">
+        <v>200134</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>114</v>
+      </c>
+      <c r="D19" s="32" t="n">
+        <v>115141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="34" t="n">
+        <v>90072</v>
+      </c>
+      <c r="D20" s="34" t="n">
+        <v>9662798</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3146,17 +4192,300 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1717699</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1495968</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1215305</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>494471</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>638767</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>166515</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>41188</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>94266</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>5864575</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>263926</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>185737</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>129428</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>66466</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>84333</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10331</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>6880</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>18810</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>765979</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>465189</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>250493</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>181716</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>54968</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>62990</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>14515</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>16071</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1056238</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2471299</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1944689</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1547303</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>619040</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>794156</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>192824</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>60891</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>129425</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>7760322</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1729820</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1546945</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1269653</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>496799</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>685824</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>172998</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>43100</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>95520</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>6041788</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
+        <v>317447</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>300917</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>174984</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>94506</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>122560</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>11385</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>7847</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>25278</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1055015</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
+        <v>519380</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>246041</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>186778</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>41999</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>49084</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>11262</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>11367</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>21404</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1087445</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
+        <v>2604314</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2112706</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1656831</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>638792</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>866777</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>197575</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>65061</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>142664</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>8286077</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3172,17 +4501,300 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>818215</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>607174</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>400823</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>202478</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>197350</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>66991</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>5867</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>22770</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2321668</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>487459</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>429458</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>241431</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>141207</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>160465</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>44591</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10788</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>35190</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1550589</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>525542</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>334715</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>275164</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>139312</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>147963</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>40156</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>23682</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>29771</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1516305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1918560</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1435363</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>964443</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>501900</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>528363</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>158817</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>44616</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>90258</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>5642320</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>839665</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>682685</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>471407</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>205531</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>247050</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>70444</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>9957</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>38555</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2565695</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
+        <v>840004</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>746502</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>558439</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>225670</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>344014</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>66218</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>19247</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>54832</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2855222</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
+        <v>826922</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>607354</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>566478</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>182180</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>245705</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>54034</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>32737</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>45346</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2561302</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
+        <v>2604314</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2112706</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1656831</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>638792</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>866777</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>197575</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>65061</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>142664</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>8286077</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3344,70 +4956,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="V1" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,7 +5027,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>36</v>
@@ -3483,7 +5095,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>38</v>
@@ -3551,7 +5163,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>37</v>
@@ -3619,7 +5231,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>37</v>
@@ -3687,7 +5299,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>38</v>
@@ -3755,7 +5367,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>38</v>
@@ -3858,10 +5470,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -3888,12 +5500,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -3928,7 +5540,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -3963,7 +5575,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -3998,7 +5610,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -4033,7 +5645,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -4068,7 +5680,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -4103,7 +5715,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -4138,7 +5750,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -4200,137 +5812,137 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="X1" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -4398,7 +6010,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>38</v>
@@ -4463,7 +6075,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>36</v>
@@ -4528,7 +6140,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>37</v>
@@ -4593,129 +6205,129 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="X7" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +6610,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -5025,12 +6637,12 @@
         <v>8</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -5065,7 +6677,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1775507</v>
@@ -5097,7 +6709,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>391736</v>
@@ -5129,7 +6741,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6917657</v>
@@ -5161,7 +6773,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>1</v>
@@ -5188,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,12 +6976,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5383,7 +6995,7 @@
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0</v>
@@ -5415,7 +7027,7 @@
     </row>
     <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>6</v>
@@ -5447,7 +7059,7 @@
     </row>
     <row r="5" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0</v>
@@ -5479,7 +7091,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>4899090</v>
@@ -5511,7 +7123,7 @@
     </row>
     <row r="7" customFormat="false" ht="48.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
@@ -5543,7 +7155,7 @@
     </row>
     <row r="8" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
@@ -5575,7 +7187,7 @@
     </row>
     <row r="9" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
@@ -5607,7 +7219,7 @@
     </row>
     <row r="10" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
@@ -5639,7 +7251,7 @@
     </row>
     <row r="11" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>0</v>
@@ -5671,7 +7283,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>2208</v>
@@ -5703,7 +7315,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>33879</v>
@@ -5735,7 +7347,7 @@
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>157</v>
@@ -5767,7 +7379,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>31</v>
@@ -5799,7 +7411,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>110</v>
@@ -5831,7 +7443,7 @@
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>6</v>
@@ -5863,7 +7475,7 @@
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>0</v>
@@ -5895,7 +7507,7 @@
     </row>
     <row r="19" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>9</v>
@@ -5927,7 +7539,7 @@
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>7</v>
@@ -5959,7 +7571,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>73</v>
@@ -5991,7 +7603,7 @@
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>495</v>
@@ -6023,7 +7635,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>117136</v>
@@ -6055,7 +7667,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>327</v>
@@ -6087,7 +7699,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>110</v>
@@ -6119,7 +7731,7 @@
     </row>
     <row r="26" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>6</v>
@@ -6151,7 +7763,7 @@
     </row>
     <row r="27" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>14</v>
@@ -6183,7 +7795,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>4</v>
@@ -6215,7 +7827,7 @@
     </row>
     <row r="29" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>5466</v>
@@ -6247,7 +7859,7 @@
     </row>
     <row r="30" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>4</v>
@@ -6279,7 +7891,7 @@
     </row>
     <row r="31" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>0</v>
@@ -6311,7 +7923,7 @@
     </row>
     <row r="32" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>3</v>
@@ -6343,7 +7955,7 @@
     </row>
     <row r="33" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>0</v>
@@ -6375,7 +7987,7 @@
     </row>
     <row r="34" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>0</v>
@@ -6407,7 +8019,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>9025</v>
@@ -6439,7 +8051,7 @@
     </row>
     <row r="36" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>111</v>
@@ -6471,7 +8083,7 @@
     </row>
     <row r="37" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>528</v>
@@ -6503,7 +8115,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>271</v>
@@ -6535,7 +8147,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>5843</v>
@@ -6567,7 +8179,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>21</v>
@@ -6599,7 +8211,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>431</v>
@@ -6631,7 +8243,7 @@
     </row>
     <row r="42" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>7</v>
@@ -6663,7 +8275,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B43" s="6" t="n">
         <v>5075370</v>
@@ -6707,7 +8319,7 @@
     </row>
     <row r="45" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -6721,7 +8333,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>4</v>
@@ -6753,7 +8365,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>5172</v>
@@ -6785,7 +8397,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>2026</v>
@@ -6817,7 +8429,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>2630</v>
@@ -6849,7 +8461,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>226564</v>
@@ -6881,7 +8493,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>3</v>
@@ -6913,7 +8525,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>2267</v>
@@ -6945,7 +8557,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>11540</v>
@@ -6977,7 +8589,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>29541</v>
@@ -7009,7 +8621,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>10</v>
@@ -7041,7 +8653,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>153</v>
@@ -7073,7 +8685,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>127</v>
@@ -7105,7 +8717,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>24038</v>
@@ -7137,7 +8749,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>168</v>
@@ -7169,7 +8781,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>311</v>
@@ -7201,7 +8813,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>5</v>
@@ -7233,7 +8845,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>69</v>
@@ -7265,7 +8877,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>22</v>
@@ -7297,7 +8909,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>16900</v>
@@ -7329,7 +8941,7 @@
     </row>
     <row r="65" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>5</v>
@@ -7361,7 +8973,7 @@
     </row>
     <row r="66" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>5972</v>
@@ -7393,7 +9005,7 @@
     </row>
     <row r="67" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>0</v>
@@ -7425,7 +9037,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>1237</v>
@@ -7457,7 +9069,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="5" t="n">
         <v>28579</v>
@@ -7489,7 +9101,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="5" t="n">
         <v>3424</v>
@@ -7521,7 +9133,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="5" t="n">
         <v>3855</v>
@@ -7553,7 +9165,7 @@
     </row>
     <row r="72" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" s="5" t="n">
         <v>1875</v>
@@ -7585,7 +9197,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="5" t="n">
         <v>7256</v>
@@ -7617,7 +9229,7 @@
     </row>
     <row r="74" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="5" t="n">
         <v>0</v>
@@ -7649,7 +9261,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B75" s="6" t="n">
         <v>373758</v>
@@ -7693,7 +9305,7 @@
     </row>
     <row r="77" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -7707,7 +9319,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="5" t="n">
         <v>315</v>
@@ -7739,7 +9351,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5" t="n">
         <v>11</v>
@@ -7771,7 +9383,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="n">
         <v>472</v>
@@ -7803,7 +9415,7 @@
     </row>
     <row r="81" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="5" t="n">
         <v>7095</v>
@@ -7835,7 +9447,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="5" t="n">
         <v>1059</v>
@@ -7867,7 +9479,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="5" t="n">
         <v>15638</v>
@@ -7899,7 +9511,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="5" t="n">
         <v>6239</v>
@@ -7931,7 +9543,7 @@
     </row>
     <row r="85" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="5" t="n">
         <v>3310</v>
@@ -7963,7 +9575,7 @@
     </row>
     <row r="86" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="5" t="n">
         <v>1699</v>
@@ -7995,7 +9607,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="5" t="n">
         <v>759</v>
@@ -8027,7 +9639,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="5" t="n">
         <v>95</v>
@@ -8059,7 +9671,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="5" t="n">
         <v>29481</v>
@@ -8091,7 +9703,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="5" t="n">
         <v>0</v>
@@ -8123,7 +9735,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="5" t="n">
         <v>6420</v>
@@ -8155,7 +9767,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" s="5" t="n">
         <v>49476</v>
@@ -8187,7 +9799,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="5" t="n">
         <v>217</v>
@@ -8219,7 +9831,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="5" t="n">
         <v>1144</v>
@@ -8251,7 +9863,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="5" t="n">
         <v>1022</v>
@@ -8283,7 +9895,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="5" t="n">
         <v>14481</v>
@@ -8315,7 +9927,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97" s="5" t="n">
         <v>250</v>
@@ -8347,7 +9959,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" s="5" t="n">
         <v>398</v>
@@ -8379,7 +9991,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" s="5" t="n">
         <v>13451</v>
@@ -8411,7 +10023,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100" s="5" t="n">
         <v>8325</v>
@@ -8443,7 +10055,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101" s="5" t="n">
         <v>3473</v>
@@ -8475,7 +10087,7 @@
     </row>
     <row r="102" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102" s="5" t="n">
         <v>7586</v>
@@ -8507,7 +10119,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="5" t="n">
         <v>3</v>
@@ -8539,7 +10151,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104" s="5" t="n">
         <v>7171</v>
@@ -8571,7 +10183,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105" s="5" t="n">
         <v>2252</v>
@@ -8603,7 +10215,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="5" t="n">
         <v>1773</v>
@@ -8635,7 +10247,7 @@
     </row>
     <row r="107" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="5" t="n">
         <v>7957</v>
@@ -8667,7 +10279,7 @@
     </row>
     <row r="108" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="5" t="n">
         <v>0</v>
@@ -8699,7 +10311,7 @@
     </row>
     <row r="109" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="5" t="n">
         <v>0</v>
@@ -8731,7 +10343,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="5" t="n">
         <v>6387</v>
@@ -8763,7 +10375,7 @@
     </row>
     <row r="111" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111" s="5" t="n">
         <v>16501</v>
@@ -8795,7 +10407,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="5" t="n">
         <v>4830</v>
@@ -8827,7 +10439,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B113" s="6" t="n">
         <v>219287</v>
@@ -8871,7 +10483,7 @@
     </row>
     <row r="115" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -8885,7 +10497,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="5" t="n">
         <v>584</v>
@@ -8917,7 +10529,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B117" s="5" t="n">
         <v>517</v>
@@ -8949,7 +10561,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" s="5" t="n">
         <v>19724</v>
@@ -8981,7 +10593,7 @@
     </row>
     <row r="119" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B119" s="5" t="n">
         <v>1632</v>
@@ -9013,7 +10625,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B120" s="5" t="n">
         <v>23048</v>
@@ -9045,7 +10657,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" s="5" t="n">
         <v>40271</v>
@@ -9077,7 +10689,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" s="5" t="n">
         <v>3594</v>
@@ -9109,7 +10721,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B123" s="5" t="n">
         <v>3785</v>
@@ -9141,7 +10753,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B124" s="5" t="n">
         <v>2603</v>
@@ -9173,7 +10785,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B125" s="5" t="n">
         <v>57381</v>
@@ -9205,7 +10817,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B126" s="5" t="n">
         <v>702</v>
@@ -9237,7 +10849,7 @@
     </row>
     <row r="127" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B127" s="5" t="n">
         <v>476</v>
@@ -9269,7 +10881,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128" s="5" t="n">
         <v>729</v>
@@ -9301,7 +10913,7 @@
     </row>
     <row r="129" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B129" s="5" t="n">
         <v>134</v>
@@ -9333,7 +10945,7 @@
     </row>
     <row r="130" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B130" s="5" t="n">
         <v>19</v>
@@ -9365,7 +10977,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B131" s="5" t="n">
         <v>375</v>
@@ -9397,7 +11009,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B132" s="5" t="n">
         <v>356</v>
@@ -9429,7 +11041,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B133" s="5" t="n">
         <v>3566</v>
@@ -9461,7 +11073,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134" s="5" t="n">
         <v>977</v>
@@ -9493,7 +11105,7 @@
     </row>
     <row r="135" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B135" s="5" t="n">
         <v>0</v>
@@ -9525,7 +11137,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" s="5" t="n">
         <v>5093</v>
@@ -9557,7 +11169,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B137" s="5" t="n">
         <v>9291</v>
@@ -9589,7 +11201,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B138" s="5" t="n">
         <v>220</v>
@@ -9621,7 +11233,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B139" s="5" t="n">
         <v>12808</v>
@@ -9653,7 +11265,7 @@
     </row>
     <row r="140" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B140" s="5" t="n">
         <v>2595</v>
@@ -9685,7 +11297,7 @@
     </row>
     <row r="141" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" s="5" t="n">
         <v>5</v>
@@ -9717,7 +11329,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B142" s="5" t="n">
         <v>230</v>
@@ -9749,7 +11361,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B143" s="6" t="n">
         <v>190710</v>
@@ -9793,7 +11405,7 @@
     </row>
     <row r="145" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -9807,7 +11419,7 @@
     </row>
     <row r="146" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B146" s="5" t="n">
         <v>492</v>
@@ -9839,7 +11451,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B147" s="5" t="n">
         <v>12439</v>
@@ -9871,7 +11483,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B148" s="5" t="n">
         <v>31774</v>
@@ -9903,7 +11515,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B149" s="5" t="n">
         <v>5227</v>
@@ -9935,7 +11547,7 @@
     </row>
     <row r="150" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B150" s="5" t="n">
         <v>3</v>
@@ -9967,7 +11579,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B151" s="5" t="n">
         <v>31655</v>
@@ -9999,7 +11611,7 @@
     </row>
     <row r="152" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B152" s="5" t="n">
         <v>42</v>
@@ -10031,7 +11643,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B153" s="5" t="n">
         <v>7128</v>
@@ -10063,7 +11675,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B154" s="5" t="n">
         <v>86749</v>
@@ -10095,7 +11707,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B155" s="5" t="n">
         <v>12730</v>
@@ -10127,7 +11739,7 @@
     </row>
     <row r="156" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B156" s="5" t="n">
         <v>27</v>
@@ -10159,7 +11771,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B157" s="5" t="n">
         <v>26719</v>
@@ -10191,7 +11803,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B158" s="5" t="n">
         <v>2119</v>
@@ -10223,7 +11835,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159" s="5" t="n">
         <v>84130</v>
@@ -10255,7 +11867,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B160" s="6" t="n">
         <v>301233</v>
@@ -10299,7 +11911,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -10313,7 +11925,7 @@
     </row>
     <row r="163" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B163" s="5" t="n">
         <v>234508</v>
@@ -10345,7 +11957,7 @@
     </row>
     <row r="164" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B164" s="5" t="n">
         <v>5</v>
@@ -10377,7 +11989,7 @@
     </row>
     <row r="165" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B165" s="5" t="n">
         <v>42347</v>
@@ -10409,7 +12021,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B166" s="5" t="n">
         <v>14008</v>
@@ -10441,7 +12053,7 @@
     </row>
     <row r="167" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B167" s="5" t="n">
         <v>0</v>
@@ -10473,7 +12085,7 @@
     </row>
     <row r="168" customFormat="false" ht="48.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B168" s="5" t="n">
         <v>47</v>
@@ -10505,7 +12117,7 @@
     </row>
     <row r="169" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B169" s="5" t="n">
         <v>51816</v>
@@ -10537,7 +12149,7 @@
     </row>
     <row r="170" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B170" s="5" t="n">
         <v>1212</v>
@@ -10569,7 +12181,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B171" s="5" t="n">
         <v>1561</v>
@@ -10601,7 +12213,7 @@
     </row>
     <row r="172" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B172" s="5" t="n">
         <v>3</v>
@@ -10633,7 +12245,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B173" s="5" t="n">
         <v>13493</v>
@@ -10665,7 +12277,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B174" s="6" t="n">
         <v>358994</v>
@@ -10709,7 +12321,7 @@
     </row>
     <row r="176" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -10723,7 +12335,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B177" s="5" t="n">
         <v>13032</v>
@@ -10755,7 +12367,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B178" s="5" t="n">
         <v>644</v>
@@ -10787,7 +12399,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B179" s="5" t="n">
         <v>160</v>
@@ -10819,7 +12431,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B180" s="5" t="n">
         <v>24217</v>
@@ -10851,7 +12463,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B181" s="5" t="n">
         <v>674</v>
@@ -10883,7 +12495,7 @@
     </row>
     <row r="182" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B182" s="5" t="n">
         <v>3</v>
@@ -10915,7 +12527,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B183" s="5" t="n">
         <v>186</v>
@@ -10947,7 +12559,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B184" s="5" t="n">
         <v>143459</v>
@@ -10979,7 +12591,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B185" s="5" t="n">
         <v>491</v>
@@ -11011,7 +12623,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B186" s="5" t="n">
         <v>105</v>
@@ -11043,7 +12655,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B187" s="5" t="n">
         <v>61</v>
@@ -11075,7 +12687,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B188" s="5" t="n">
         <v>32117</v>
@@ -11107,7 +12719,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B189" s="5" t="n">
         <v>24524</v>
@@ -11139,7 +12751,7 @@
     </row>
     <row r="190" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B190" s="5" t="n">
         <v>51</v>
@@ -11171,7 +12783,7 @@
     </row>
     <row r="191" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B191" s="5" t="n">
         <v>120</v>
@@ -11203,7 +12815,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" s="5" t="n">
         <v>28732</v>
@@ -11235,7 +12847,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B193" s="5" t="n">
         <v>49</v>
@@ -11267,7 +12879,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B194" s="5" t="n">
         <v>33</v>
@@ -11299,7 +12911,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B195" s="5" t="n">
         <v>500</v>
@@ -11331,7 +12943,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B196" s="6" t="n">
         <v>269166</v>
@@ -11375,7 +12987,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -11389,7 +13001,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B199" s="5" t="n">
         <v>4</v>
@@ -11421,7 +13033,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" s="5" t="n">
         <v>11</v>
@@ -11453,7 +13065,7 @@
     </row>
     <row r="201" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B201" s="5" t="n">
         <v>7</v>
@@ -11485,7 +13097,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B202" s="5" t="n">
         <v>6244</v>
@@ -11517,7 +13129,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B203" s="5" t="n">
         <v>18</v>
@@ -11549,7 +13161,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B204" s="5" t="n">
         <v>64</v>
@@ -11581,7 +13193,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B205" s="5" t="n">
         <v>78</v>
@@ -11613,7 +13225,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B206" s="5" t="n">
         <v>25</v>
@@ -11645,7 +13257,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B207" s="5" t="n">
         <v>136</v>
@@ -11677,7 +13289,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B208" s="5" t="n">
         <v>526</v>
@@ -11709,7 +13321,7 @@
     </row>
     <row r="209" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B209" s="5" t="n">
         <v>0</v>
@@ -11741,7 +13353,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B210" s="5" t="n">
         <v>12314</v>
@@ -11773,7 +13385,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B211" s="5" t="n">
         <v>13290</v>
@@ -11805,7 +13417,7 @@
     </row>
     <row r="212" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B212" s="5" t="n">
         <v>23</v>
@@ -11837,7 +13449,7 @@
     </row>
     <row r="213" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B213" s="5" t="n">
         <v>38</v>
@@ -11869,7 +13481,7 @@
     </row>
     <row r="214" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B214" s="5" t="n">
         <v>3</v>
@@ -11901,7 +13513,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215" s="5" t="n">
         <v>13058</v>
@@ -11933,7 +13545,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B216" s="5" t="n">
         <v>6742</v>
@@ -11965,7 +13577,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B217" s="5" t="n">
         <v>174</v>
@@ -11997,7 +13609,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B218" s="5" t="n">
         <v>292</v>
@@ -12029,7 +13641,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B219" s="5" t="n">
         <v>41</v>
@@ -12061,7 +13673,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B220" s="5" t="n">
         <v>6</v>
@@ -12093,7 +13705,7 @@
     </row>
     <row r="221" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B221" s="5" t="n">
         <v>51</v>
@@ -12125,7 +13737,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B222" s="5" t="n">
         <v>1356</v>
@@ -12157,7 +13769,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B223" s="5" t="n">
         <v>1842</v>
@@ -12189,7 +13801,7 @@
     </row>
     <row r="224" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B224" s="5" t="n">
         <v>24</v>
@@ -12221,7 +13833,7 @@
     </row>
     <row r="225" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B225" s="5" t="n">
         <v>3</v>
@@ -12253,7 +13865,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B226" s="5" t="n">
         <v>54</v>
@@ -12285,7 +13897,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B227" s="5" t="n">
         <v>8</v>
@@ -12317,7 +13929,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B228" s="5" t="n">
         <v>142</v>
@@ -12349,7 +13961,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B229" s="5" t="n">
         <v>164</v>
@@ -12381,7 +13993,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B230" s="5" t="n">
         <v>38</v>
@@ -12413,7 +14025,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B231" s="5" t="n">
         <v>99</v>
@@ -12445,7 +14057,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B232" s="5" t="n">
         <v>299</v>
@@ -12477,7 +14089,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B233" s="5" t="n">
         <v>3</v>
@@ -12509,7 +14121,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B234" s="5" t="n">
         <v>1703</v>
@@ -12541,7 +14153,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B235" s="5" t="n">
         <v>0</v>
@@ -12573,7 +14185,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B236" s="5" t="n">
         <v>404</v>
@@ -12605,7 +14217,7 @@
     </row>
     <row r="237" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B237" s="5" t="n">
         <v>15</v>
@@ -12637,7 +14249,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B238" s="5" t="n">
         <v>102</v>
@@ -12669,7 +14281,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B239" s="5" t="n">
         <v>223</v>
@@ -12701,7 +14313,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B240" s="5" t="n">
         <v>5714</v>
@@ -12733,7 +14345,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B241" s="5" t="n">
         <v>49</v>
@@ -12765,7 +14377,7 @@
     </row>
     <row r="242" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B242" s="5" t="n">
         <v>3</v>
@@ -12797,7 +14409,7 @@
     </row>
     <row r="243" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B243" s="5" t="n">
         <v>0</v>
@@ -12829,7 +14441,7 @@
     </row>
     <row r="244" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B244" s="5" t="n">
         <v>88</v>
@@ -12861,7 +14473,7 @@
     </row>
     <row r="245" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B245" s="5" t="n">
         <v>0</v>
@@ -12893,7 +14505,7 @@
     </row>
     <row r="246" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B246" s="5" t="n">
         <v>15</v>
@@ -12925,7 +14537,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B247" s="5" t="n">
         <v>12</v>
@@ -12957,7 +14569,7 @@
     </row>
     <row r="248" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B248" s="5" t="n">
         <v>0</v>
@@ -12989,7 +14601,7 @@
     </row>
     <row r="249" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B249" s="5" t="n">
         <v>0</v>
@@ -13021,7 +14633,7 @@
     </row>
     <row r="250" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B250" s="5" t="n">
         <v>25</v>
@@ -13053,7 +14665,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B251" s="5" t="n">
         <v>35</v>
@@ -13085,7 +14697,7 @@
     </row>
     <row r="252" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B252" s="5" t="n">
         <v>352</v>
@@ -13117,7 +14729,7 @@
     </row>
     <row r="253" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B253" s="5" t="n">
         <v>0</v>
@@ -13149,7 +14761,7 @@
     </row>
     <row r="254" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B254" s="5" t="n">
         <v>30081</v>
@@ -13181,7 +14793,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B255" s="5" t="n">
         <v>6213</v>
@@ -13213,7 +14825,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B256" s="5" t="n">
         <v>1855</v>
@@ -13245,7 +14857,7 @@
     </row>
     <row r="257" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B257" s="5" t="n">
         <v>10</v>
@@ -13277,7 +14889,7 @@
     </row>
     <row r="258" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B258" s="5" t="n">
         <v>3</v>
@@ -13309,7 +14921,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B259" s="6" t="n">
         <v>104080</v>
@@ -13353,7 +14965,7 @@
     </row>
     <row r="261" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -13367,7 +14979,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B262" s="5" t="n">
         <v>150</v>
@@ -13399,7 +15011,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B263" s="5" t="n">
         <v>19</v>
@@ -13431,7 +15043,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B264" s="5" t="n">
         <v>233</v>
@@ -13463,7 +15075,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B265" s="5" t="n">
         <v>20</v>
@@ -13495,7 +15107,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B266" s="5" t="n">
         <v>209</v>
@@ -13527,7 +15139,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B267" s="5" t="n">
         <v>11</v>
@@ -13559,7 +15171,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B268" s="5" t="n">
         <v>99</v>
@@ -13591,7 +15203,7 @@
     </row>
     <row r="269" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B269" s="5" t="n">
         <v>0</v>
@@ -13623,7 +15235,7 @@
     </row>
     <row r="270" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B270" s="5" t="n">
         <v>26</v>
@@ -13655,7 +15267,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B271" s="5" t="n">
         <v>15</v>
@@ -13687,7 +15299,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B272" s="5" t="n">
         <v>0</v>
@@ -13719,7 +15331,7 @@
     </row>
     <row r="273" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B273" s="5" t="n">
         <v>551</v>
@@ -13751,7 +15363,7 @@
     </row>
     <row r="274" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B274" s="5" t="n">
         <v>246</v>
@@ -13783,7 +15395,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B275" s="5" t="n">
         <v>109</v>
@@ -13815,7 +15427,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B276" s="5" t="n">
         <v>28</v>
@@ -13847,7 +15459,7 @@
     </row>
     <row r="277" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B277" s="5" t="n">
         <v>9</v>
@@ -13879,7 +15491,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B278" s="5" t="n">
         <v>287</v>
@@ -13911,7 +15523,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B279" s="5" t="n">
         <v>1260</v>
@@ -13943,7 +15555,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B280" s="5" t="n">
         <v>21</v>
@@ -13975,7 +15587,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B281" s="5" t="n">
         <v>47</v>
@@ -14007,7 +15619,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B282" s="5" t="n">
         <v>2432</v>
@@ -14039,7 +15651,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B283" s="5" t="n">
         <v>238</v>
@@ -14071,7 +15683,7 @@
     </row>
     <row r="284" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B284" s="5" t="n">
         <v>14</v>
@@ -14103,7 +15715,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B285" s="5" t="n">
         <v>3197</v>
@@ -14135,7 +15747,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B286" s="5" t="n">
         <v>42</v>
@@ -14167,7 +15779,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B287" s="5" t="n">
         <v>600</v>
@@ -14199,7 +15811,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B288" s="5" t="n">
         <v>62</v>
@@ -14231,7 +15843,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B289" s="5" t="n">
         <v>202</v>
@@ -14263,7 +15875,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B290" s="5" t="n">
         <v>18</v>
@@ -14295,7 +15907,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B291" s="5" t="n">
         <v>27</v>
@@ -14327,7 +15939,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B292" s="5" t="n">
         <v>5731</v>
@@ -14359,7 +15971,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B293" s="5" t="n">
         <v>0</v>
@@ -14391,7 +16003,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B294" s="5" t="n">
         <v>199</v>
@@ -14423,7 +16035,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B295" s="5" t="n">
         <v>259</v>
@@ -14455,7 +16067,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B296" s="5" t="n">
         <v>13</v>
@@ -14487,7 +16099,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B297" s="5" t="n">
         <v>2712</v>
@@ -14519,7 +16131,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B298" s="5" t="n">
         <v>60</v>
@@ -14551,7 +16163,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B299" s="5" t="n">
         <v>139</v>
@@ -14583,7 +16195,7 @@
     </row>
     <row r="300" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B300" s="5" t="n">
         <v>3</v>
@@ -14615,7 +16227,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B301" s="5" t="n">
         <v>167</v>
@@ -14647,7 +16259,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B302" s="5" t="n">
         <v>245</v>
@@ -14679,7 +16291,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B303" s="5" t="n">
         <v>1601</v>
@@ -14711,7 +16323,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B304" s="5" t="n">
         <v>824</v>
@@ -14743,7 +16355,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B305" s="5" t="n">
         <v>43058</v>
@@ -14775,7 +16387,7 @@
     </row>
     <row r="306" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B306" s="5" t="n">
         <v>11</v>
@@ -14807,7 +16419,7 @@
     </row>
     <row r="307" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B307" s="5" t="n">
         <v>70</v>
@@ -14839,7 +16451,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B308" s="5" t="n">
         <v>8</v>
@@ -14871,7 +16483,7 @@
     </row>
     <row r="309" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B309" s="5" t="n">
         <v>0</v>
@@ -14903,7 +16515,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B310" s="5" t="n">
         <v>76</v>
@@ -14935,7 +16547,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B311" s="5" t="n">
         <v>797</v>
@@ -14967,7 +16579,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B312" s="5" t="n">
         <v>83</v>
@@ -14999,7 +16611,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B313" s="5" t="n">
         <v>791</v>
@@ -15031,7 +16643,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B314" s="5" t="n">
         <v>1106</v>
@@ -15063,7 +16675,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B315" s="5" t="n">
         <v>6495</v>
@@ -15095,7 +16707,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B316" s="6" t="n">
         <v>74631</v>
@@ -15139,7 +16751,7 @@
     </row>
     <row r="318" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318" s="5" t="n">
         <v>4386</v>
@@ -15171,7 +16783,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319" s="5" t="n">
         <v>36</v>
@@ -15203,7 +16815,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B320" s="5" t="n">
         <v>508571</v>
@@ -15235,7 +16847,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B321" s="12" t="n">
         <v>7480228</v>
@@ -15294,16 +16906,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>362</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15386,7 +16998,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -15413,15 +17025,15 @@
         <v>8</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>366</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>664</v>
@@ -15453,10 +17065,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>31125</v>
@@ -15488,10 +17100,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>568289</v>
@@ -15523,10 +17135,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>243659</v>
@@ -15558,10 +17170,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>415486</v>
@@ -15593,10 +17205,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>526570</v>
@@ -15628,10 +17240,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>501698</v>
@@ -15663,10 +17275,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>448014</v>
@@ -15698,10 +17310,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>450649</v>
@@ -15733,10 +17345,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>489370</v>
@@ -15768,10 +17380,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>498807</v>
@@ -15803,10 +17415,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>341092</v>
@@ -15838,10 +17450,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>290547</v>
@@ -15873,10 +17485,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>209058</v>
@@ -15908,10 +17520,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>321562</v>
@@ -15943,10 +17555,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>215643</v>

--- a/data/snapshot_clean.xlsx
+++ b/data/snapshot_clean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="State and Territory of Usual Residence " sheetId="1" state="visible" r:id="rId2"/>
@@ -38,11 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
     <t xml:space="preserve">New South Wales</t>
   </si>
   <si>
@@ -1136,9 +1142,6 @@
   </si>
   <si>
     <t xml:space="preserve">Non-private dwellings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
   </si>
   <si>
     <t xml:space="preserve">One family households</t>
@@ -1473,13 +1476,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="I1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
@@ -1504,185 +1507,499 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1966</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>4237900</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3220217</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1674324</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1094984</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>848100</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>371436</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>56504</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>96032</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>11599497</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>5714974</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4287877</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2887505</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1408623</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1576334</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>456219</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>159300</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>280868</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>16771700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>6549174</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4932421</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3904531</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1514340</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1959087</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>476481</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>192899</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>324034</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>19855288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>6917656</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>5354040</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4332738</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1596570</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2239171</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>495352</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>211944</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>357218</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>21507717</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>7480228</v>
       </c>
-      <c r="C6" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3220217</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4287877</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4932421</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5354040</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>5926624</v>
       </c>
-      <c r="D6" s="0" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1674324</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2887505</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3904531</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4332738</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>4703193</v>
       </c>
-      <c r="E6" s="0" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1094984</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1408623</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1514340</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1596570</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>1676653</v>
       </c>
-      <c r="F6" s="0" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>848100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1576334</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1959087</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2239171</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>2474410</v>
       </c>
-      <c r="G6" s="0" t="n">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>371436</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>456219</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>476481</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>495352</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>509965</v>
       </c>
-      <c r="H6" s="0" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>56504</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>159300</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>192899</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>211944</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>228833</v>
       </c>
-      <c r="I6" s="0" t="n">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>96032</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>280868</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>324034</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>357218</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>397397</v>
       </c>
-      <c r="J6" s="0" t="n">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>11599497</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>16771700</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>19855288</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>21507717</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>23401892</v>
       </c>
     </row>
@@ -1704,29 +2021,29 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="I1:J7 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2774855</v>
@@ -1743,7 +2060,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2242283</v>
@@ -1760,7 +2077,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1791739</v>
@@ -1777,7 +2094,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>673541</v>
@@ -1794,7 +2111,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>938092</v>
@@ -1811,7 +2128,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>209614</v>
@@ -1828,7 +2145,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>79246</v>
@@ -1845,7 +2162,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>150693</v>
@@ -1862,7 +2179,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8861623</v>
@@ -1895,33 +2212,33 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>0</v>
@@ -1929,7 +2246,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1426810</v>
@@ -1955,7 +2272,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1072422</v>
@@ -1981,7 +2298,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>728631</v>
@@ -2007,7 +2324,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>370091</v>
@@ -2033,7 +2350,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>396766</v>
@@ -2059,7 +2376,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>118725</v>
@@ -2085,7 +2402,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>32130</v>
@@ -2111,7 +2428,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>68686</v>
@@ -2137,7 +2454,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1811533</v>
@@ -2163,7 +2480,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1459760</v>
@@ -2189,7 +2506,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1159701</v>
@@ -2215,7 +2532,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>430095</v>
@@ -2241,7 +2558,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>616131</v>
@@ -2267,7 +2584,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>130836</v>
@@ -2293,7 +2610,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>44026</v>
@@ -2319,7 +2636,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>98633</v>
@@ -2361,24 +2678,24 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="I1:J7 G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -2388,7 +2705,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>6968</v>
@@ -2407,7 +2724,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>35957</v>
@@ -2426,7 +2743,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>61008</v>
@@ -2445,7 +2762,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>64271</v>
@@ -2464,7 +2781,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>67871</v>
@@ -2483,7 +2800,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>73725</v>
@@ -2502,7 +2819,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>79962</v>
@@ -2521,7 +2838,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>84423</v>
@@ -2540,7 +2857,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>81478</v>
@@ -2559,7 +2876,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>79520</v>
@@ -2578,7 +2895,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>63419</v>
@@ -2597,7 +2914,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>50113</v>
@@ -2616,7 +2933,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>40556</v>
@@ -2635,7 +2952,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>36467</v>
@@ -2654,7 +2971,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>33345</v>
@@ -2673,7 +2990,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>6848</v>
@@ -2692,7 +3009,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>34052</v>
@@ -2709,7 +3026,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>58315</v>
@@ -2726,7 +3043,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>66403</v>
@@ -2743,7 +3060,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>62759</v>
@@ -2760,7 +3077,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>69417</v>
@@ -2777,7 +3094,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>79040</v>
@@ -2794,7 +3111,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>87678</v>
@@ -2811,7 +3128,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>92202</v>
@@ -2828,7 +3145,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>87450</v>
@@ -2845,7 +3162,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>83587</v>
@@ -2862,7 +3179,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>63521</v>
@@ -2879,7 +3196,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>47823</v>
@@ -2896,7 +3213,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>36343</v>
@@ -2913,7 +3230,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>40531</v>
@@ -2946,13 +3263,13 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="I1:J7 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
@@ -2966,10 +3283,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -2977,7 +3294,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.8</v>
@@ -2988,7 +3305,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2.6</v>
@@ -2999,7 +3316,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.8</v>
@@ -3010,7 +3327,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.6</v>
@@ -3021,7 +3338,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.8</v>
@@ -3032,7 +3349,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2.6</v>
@@ -3043,7 +3360,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2.6</v>
@@ -3054,7 +3371,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.4</v>
@@ -3065,7 +3382,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.8</v>
@@ -3076,7 +3393,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2.6</v>
@@ -3087,7 +3404,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.7</v>
@@ -3098,7 +3415,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2.3</v>
@@ -3109,7 +3426,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>3</v>
@@ -3120,7 +3437,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.9</v>
@@ -3131,7 +3448,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2.9</v>
@@ -3142,7 +3459,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.5</v>
@@ -3153,7 +3470,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.8</v>
@@ -3164,7 +3481,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.6</v>
@@ -3191,30 +3508,30 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I1:J7 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>0</v>
@@ -3222,7 +3539,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>18857</v>
@@ -3245,7 +3562,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38438</v>
@@ -3268,7 +3585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>459367</v>
@@ -3291,7 +3608,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>709524</v>
@@ -3314,7 +3631,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9443</v>
@@ -3337,7 +3654,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18138</v>
@@ -3360,7 +3677,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>244410</v>
@@ -3383,7 +3700,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>481451</v>
@@ -3406,7 +3723,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>129672</v>
@@ -3429,7 +3746,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>178588</v>
@@ -3452,7 +3769,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39651</v>
@@ -3475,7 +3792,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>57849</v>
@@ -3498,7 +3815,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>330019</v>
@@ -3521,7 +3838,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>559717</v>
@@ -3544,7 +3861,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>127227</v>
@@ -3567,7 +3884,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247841</v>
@@ -3606,24 +3923,24 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="I1:J7 C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
@@ -3631,7 +3948,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2687</v>
@@ -3648,7 +3965,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2846</v>
@@ -3665,7 +3982,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>50685</v>
@@ -3682,7 +3999,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>55256</v>
@@ -3699,7 +4016,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1678</v>
@@ -3716,7 +4033,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1753</v>
@@ -3733,7 +4050,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>33124</v>
@@ -3750,7 +4067,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>37195</v>
@@ -3767,7 +4084,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>13210</v>
@@ -3784,7 +4101,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14186</v>
@@ -3801,7 +4118,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4228</v>
@@ -3818,7 +4135,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4541</v>
@@ -3835,7 +4152,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>37741</v>
@@ -3852,7 +4169,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>41675</v>
@@ -3869,7 +4186,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15324</v>
@@ -3886,7 +4203,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>17072</v>
@@ -3919,29 +4236,29 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -3958,7 +4275,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -3975,7 +4292,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -3992,7 +4309,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -4009,7 +4326,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -4026,7 +4343,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -4043,7 +4360,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -4060,7 +4377,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -4093,26 +4410,26 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I1:J7 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="19" t="n">
         <v>464</v>
@@ -4123,7 +4440,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="19" t="n">
         <v>5328</v>
@@ -4134,7 +4451,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="19" t="n">
         <v>11923</v>
@@ -4145,7 +4462,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="19" t="n">
         <v>13976</v>
@@ -4156,7 +4473,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19" t="n">
         <v>12238</v>
@@ -4167,7 +4484,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19" t="n">
         <v>11257</v>
@@ -4178,7 +4495,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="19" t="n">
         <v>10751</v>
@@ -4189,7 +4506,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>9004</v>
@@ -4200,7 +4517,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>6299</v>
@@ -4211,7 +4528,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>4063</v>
@@ -4222,7 +4539,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="19" t="n">
         <v>2631</v>
@@ -4233,7 +4550,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>1252</v>
@@ -4244,7 +4561,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="19" t="n">
         <v>537</v>
@@ -4255,7 +4572,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19" t="n">
         <v>236</v>
@@ -4266,7 +4583,7 @@
     </row>
     <row r="16" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="19" t="n">
         <v>114</v>
@@ -4293,27 +4610,27 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -4321,7 +4638,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94266</v>
@@ -4341,7 +4658,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>95520</v>
@@ -4361,7 +4678,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1717699</v>
@@ -4381,7 +4698,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1729820</v>
@@ -4401,7 +4718,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>41188</v>
@@ -4421,7 +4738,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>43100</v>
@@ -4441,7 +4758,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1215305</v>
@@ -4461,7 +4778,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1269653</v>
@@ -4481,7 +4798,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>494471</v>
@@ -4501,7 +4818,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>496799</v>
@@ -4521,7 +4838,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166515</v>
@@ -4541,7 +4858,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>172998</v>
@@ -4561,7 +4878,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1495968</v>
@@ -4581,7 +4898,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1546945</v>
@@ -4601,7 +4918,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>638767</v>
@@ -4621,7 +4938,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>685824</v>
@@ -4657,35 +4974,35 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I1:J7 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>22770</v>
@@ -4705,7 +5022,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38555</v>
@@ -4725,7 +5042,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>818215</v>
@@ -4745,7 +5062,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>839665</v>
@@ -4765,7 +5082,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5867</v>
@@ -4785,7 +5102,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>9957</v>
@@ -4805,7 +5122,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>400823</v>
@@ -4825,7 +5142,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>471407</v>
@@ -4845,7 +5162,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>202478</v>
@@ -4865,7 +5182,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>205531</v>
@@ -4885,7 +5202,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>66991</v>
@@ -4905,7 +5222,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>70444</v>
@@ -4925,7 +5242,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>607174</v>
@@ -4945,7 +5262,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>682685</v>
@@ -4965,7 +5282,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>197350</v>
@@ -4985,7 +5302,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247050</v>
@@ -5021,11 +5338,11 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
@@ -5044,31 +5361,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,78 +5470,78 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="I1:J7 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5549,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>36</v>
@@ -5300,7 +5617,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>38</v>
@@ -5368,7 +5685,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>37</v>
@@ -5436,7 +5753,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>37</v>
@@ -5504,7 +5821,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>38</v>
@@ -5572,7 +5889,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>38</v>
@@ -5653,11 +5970,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="I1:J7 G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.62"/>
@@ -5674,42 +5991,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -5744,7 +6061,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -5779,7 +6096,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -5814,7 +6131,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -5849,7 +6166,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -5884,7 +6201,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -5919,7 +6236,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -5954,7 +6271,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -6005,35 +6322,35 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="I1:J7 I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6053,7 +6370,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6073,7 +6390,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6093,7 +6410,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6113,7 +6430,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2011</v>
@@ -6133,7 +6450,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2011</v>
@@ -6153,7 +6470,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2011</v>
@@ -6173,7 +6490,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2011</v>
@@ -6193,7 +6510,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2011</v>
@@ -6213,7 +6530,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2011</v>
@@ -6233,7 +6550,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2011</v>
@@ -6253,7 +6570,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2011</v>
@@ -6273,7 +6590,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2011</v>
@@ -6293,7 +6610,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2011</v>
@@ -6313,7 +6630,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2011</v>
@@ -6333,7 +6650,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -6353,7 +6670,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -6373,7 +6690,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -6393,7 +6710,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -6413,7 +6730,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -6433,7 +6750,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2016</v>
@@ -6453,7 +6770,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2016</v>
@@ -6473,7 +6790,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2016</v>
@@ -6493,7 +6810,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2016</v>
@@ -6513,7 +6830,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2016</v>
@@ -6533,7 +6850,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2016</v>
@@ -6553,7 +6870,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2016</v>
@@ -6573,7 +6890,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2016</v>
@@ -6593,7 +6910,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2016</v>
@@ -6613,7 +6930,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2016</v>
@@ -6633,7 +6950,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2016</v>
@@ -6653,7 +6970,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2016</v>
@@ -6673,7 +6990,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2016</v>
@@ -6693,7 +7010,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2016</v>
@@ -6713,7 +7030,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2016</v>
@@ -6733,7 +7050,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2016</v>
@@ -6753,7 +7070,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2016</v>
@@ -6773,7 +7090,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2016</v>
@@ -6793,7 +7110,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2016</v>
@@ -6813,7 +7130,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2016</v>
@@ -6849,44 +7166,44 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="I1:J7 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6921,7 +7238,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6956,7 +7273,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6991,7 +7308,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -7026,7 +7343,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -7061,7 +7378,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -7096,7 +7413,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -7131,7 +7448,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -7182,11 +7499,11 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A300" activeCellId="1" sqref="I1:J7 A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.33"/>
@@ -7196,37 +7513,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -7256,7 +7573,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>13032</v>
@@ -7286,7 +7603,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>4</v>
@@ -7316,7 +7633,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>315</v>
@@ -7346,7 +7663,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>584</v>
@@ -7376,7 +7693,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
@@ -7406,7 +7723,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>11</v>
@@ -7436,7 +7753,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>150</v>
@@ -7466,7 +7783,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>11</v>
@@ -7496,7 +7813,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>6</v>
@@ -7526,7 +7843,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>7</v>
@@ -7556,7 +7873,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>6244</v>
@@ -7586,7 +7903,7 @@
     </row>
     <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>0</v>
@@ -7616,7 +7933,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>644</v>
@@ -7646,7 +7963,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>18</v>
@@ -7676,7 +7993,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>36</v>
@@ -7706,7 +8023,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>4899090</v>
@@ -7736,7 +8053,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>0</v>
@@ -7766,7 +8083,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>0</v>
@@ -7796,7 +8113,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0</v>
@@ -7826,7 +8143,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>5172</v>
@@ -7856,7 +8173,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>160</v>
@@ -7886,7 +8203,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>64</v>
@@ -7916,7 +8233,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>517</v>
@@ -7946,7 +8263,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24217</v>
@@ -7976,7 +8293,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>78</v>
@@ -8006,7 +8323,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>472</v>
@@ -8036,7 +8353,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>2026</v>
@@ -8066,7 +8383,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>25</v>
@@ -8096,7 +8413,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>19</v>
@@ -8126,7 +8443,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>136</v>
@@ -8156,7 +8473,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>674</v>
@@ -8186,7 +8503,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>526</v>
@@ -8216,7 +8533,7 @@
     </row>
     <row r="35" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>0</v>
@@ -8246,7 +8563,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>7095</v>
@@ -8276,7 +8593,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>233</v>
@@ -8306,7 +8623,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>12314</v>
@@ -8336,7 +8653,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>0</v>
@@ -8366,7 +8683,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>492</v>
@@ -8396,7 +8713,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>1059</v>
@@ -8426,7 +8743,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>20</v>
@@ -8456,7 +8773,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>209</v>
@@ -8486,7 +8803,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
@@ -8516,7 +8833,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>12439</v>
@@ -8546,7 +8863,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>99</v>
@@ -8576,7 +8893,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>13290</v>
@@ -8606,7 +8923,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>23</v>
@@ -8636,7 +8953,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>38</v>
@@ -8666,7 +8983,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>0</v>
@@ -8696,7 +9013,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>3</v>
@@ -8726,7 +9043,7 @@
     </row>
     <row r="52" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>26</v>
@@ -8756,7 +9073,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>3</v>
@@ -8786,7 +9103,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>15</v>
@@ -8816,7 +9133,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>13058</v>
@@ -8846,7 +9163,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>0</v>
@@ -8876,7 +9193,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>234508</v>
@@ -8906,7 +9223,7 @@
     </row>
     <row r="58" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>5</v>
@@ -8936,7 +9253,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>6742</v>
@@ -8966,7 +9283,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>0</v>
@@ -8996,7 +9313,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>551</v>
@@ -9026,7 +9343,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>246</v>
@@ -9056,7 +9373,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="4" t="n">
         <v>2208</v>
@@ -9086,7 +9403,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="4" t="n">
         <v>174</v>
@@ -9116,7 +9433,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="4" t="n">
         <v>109</v>
@@ -9146,7 +9463,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="n">
         <v>15638</v>
@@ -9176,7 +9493,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4" t="n">
         <v>292</v>
@@ -9206,7 +9523,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="4" t="n">
         <v>41</v>
@@ -9236,7 +9553,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="4" t="n">
         <v>6239</v>
@@ -9266,7 +9583,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="n">
         <v>3310</v>
@@ -9296,7 +9613,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="4" t="n">
         <v>2630</v>
@@ -9326,7 +9643,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="4" t="n">
         <v>28</v>
@@ -9356,7 +9673,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>6</v>
@@ -9386,7 +9703,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>51</v>
@@ -9416,7 +9733,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="4" t="n">
         <v>1699</v>
@@ -9446,7 +9763,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="n">
         <v>1356</v>
@@ -9476,7 +9793,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B77" s="4" t="n">
         <v>19724</v>
@@ -9506,7 +9823,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" s="4" t="n">
         <v>1842</v>
@@ -9536,7 +9853,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B79" s="4" t="n">
         <v>226564</v>
@@ -9566,7 +9883,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="n">
         <v>9</v>
@@ -9596,7 +9913,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" s="4" t="n">
         <v>287</v>
@@ -9626,7 +9943,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B82" s="4" t="n">
         <v>759</v>
@@ -9656,7 +9973,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1260</v>
@@ -9686,7 +10003,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="4" t="n">
         <v>24</v>
@@ -9716,7 +10033,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" s="4" t="n">
         <v>3</v>
@@ -9746,7 +10063,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" s="4" t="n">
         <v>33879</v>
@@ -9776,7 +10093,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="n">
         <v>2267</v>
@@ -9806,7 +10123,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B88" s="4" t="n">
         <v>11540</v>
@@ -9836,7 +10153,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="n">
         <v>3</v>
@@ -9866,7 +10183,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B90" s="4" t="n">
         <v>157</v>
@@ -9896,7 +10213,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="4" t="n">
         <v>21</v>
@@ -9926,7 +10243,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" s="4" t="n">
         <v>47</v>
@@ -9956,7 +10273,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="n">
         <v>1632</v>
@@ -9986,7 +10303,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" s="4" t="n">
         <v>186</v>
@@ -10016,7 +10333,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="4" t="n">
         <v>29541</v>
@@ -10046,7 +10363,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B96" s="4" t="n">
         <v>2432</v>
@@ -10076,7 +10393,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" s="4" t="n">
         <v>95</v>
@@ -10106,7 +10423,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B98" s="4" t="n">
         <v>29481</v>
@@ -10136,7 +10453,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="4" t="n">
         <v>10</v>
@@ -10166,7 +10483,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B100" s="4" t="n">
         <v>54</v>
@@ -10196,7 +10513,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
@@ -10226,7 +10543,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B102" s="4" t="n">
         <v>31</v>
@@ -10256,7 +10573,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B103" s="4" t="n">
         <v>142</v>
@@ -10286,7 +10603,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B104" s="4" t="n">
         <v>153</v>
@@ -10316,7 +10633,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>238</v>
@@ -10346,7 +10663,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>14</v>
@@ -10376,7 +10693,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>164</v>
@@ -10406,7 +10723,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B108" s="4" t="n">
         <v>38</v>
@@ -10436,7 +10753,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>0</v>
@@ -10466,7 +10783,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B110" s="4" t="n">
         <v>99</v>
@@ -10496,7 +10813,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B111" s="4" t="n">
         <v>42347</v>
@@ -10526,7 +10843,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B112" s="4" t="n">
         <v>6420</v>
@@ -10556,7 +10873,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B113" s="4" t="n">
         <v>127</v>
@@ -10586,7 +10903,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B114" s="4" t="n">
         <v>4386</v>
@@ -10616,7 +10933,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B115" s="4" t="n">
         <v>143459</v>
@@ -10646,7 +10963,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B116" s="4" t="n">
         <v>31774</v>
@@ -10676,7 +10993,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B117" s="4" t="n">
         <v>23048</v>
@@ -10706,7 +11023,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B118" s="4" t="n">
         <v>40271</v>
@@ -10736,7 +11053,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B119" s="4" t="n">
         <v>24038</v>
@@ -10766,7 +11083,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B120" s="4" t="n">
         <v>168</v>
@@ -10796,7 +11113,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B121" s="4" t="n">
         <v>3594</v>
@@ -10826,7 +11143,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B122" s="4" t="n">
         <v>49476</v>
@@ -10856,7 +11173,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B123" s="4" t="n">
         <v>299</v>
@@ -10886,7 +11203,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B124" s="4" t="n">
         <v>14008</v>
@@ -10916,7 +11233,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" s="4" t="n">
         <v>0</v>
@@ -10946,7 +11263,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B126" s="4" t="n">
         <v>311</v>
@@ -10976,7 +11293,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B127" s="4" t="n">
         <v>3785</v>
@@ -11006,7 +11323,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B128" s="4" t="n">
         <v>491</v>
@@ -11036,7 +11353,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B129" s="4" t="n">
         <v>3197</v>
@@ -11066,7 +11383,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B130" s="4" t="n">
         <v>110</v>
@@ -11096,7 +11413,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B131" s="4" t="n">
         <v>47</v>
@@ -11126,7 +11443,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B132" s="4" t="n">
         <v>51816</v>
@@ -11156,7 +11473,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B133" s="4" t="n">
         <v>217</v>
@@ -11186,7 +11503,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B134" s="4" t="n">
         <v>2603</v>
@@ -11216,7 +11533,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B135" s="4" t="n">
         <v>105</v>
@@ -11246,7 +11563,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B136" s="4" t="n">
         <v>5227</v>
@@ -11276,7 +11593,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B137" s="4" t="n">
         <v>1144</v>
@@ -11306,7 +11623,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B138" s="4" t="n">
         <v>57381</v>
@@ -11336,7 +11653,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B139" s="4" t="n">
         <v>42</v>
@@ -11366,7 +11683,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B140" s="4" t="n">
         <v>600</v>
@@ -11396,7 +11713,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B141" s="4" t="n">
         <v>702</v>
@@ -11426,7 +11743,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B142" s="4" t="n">
         <v>5</v>
@@ -11456,7 +11773,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B143" s="4" t="n">
         <v>1022</v>
@@ -11486,7 +11803,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B144" s="4" t="n">
         <v>69</v>
@@ -11516,7 +11833,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B145" s="4" t="n">
         <v>1212</v>
@@ -11546,7 +11863,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B146" s="4" t="n">
         <v>62</v>
@@ -11576,7 +11893,7 @@
     </row>
     <row r="147" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B147" s="4" t="n">
         <v>3</v>
@@ -11606,7 +11923,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B148" s="4" t="n">
         <v>202</v>
@@ -11636,7 +11953,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B149" s="4" t="n">
         <v>31655</v>
@@ -11666,7 +11983,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B150" s="4" t="n">
         <v>61</v>
@@ -11696,7 +12013,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B151" s="4" t="n">
         <v>18</v>
@@ -11726,7 +12043,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>14481</v>
@@ -11756,7 +12073,7 @@
     </row>
     <row r="153" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B153" s="4" t="n">
         <v>42</v>
@@ -11786,7 +12103,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B154" s="4" t="n">
         <v>6</v>
@@ -11816,7 +12133,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B155" s="4" t="n">
         <v>3</v>
@@ -11846,7 +12163,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B156" s="4" t="n">
         <v>27</v>
@@ -11876,7 +12193,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B157" s="4" t="n">
         <v>5731</v>
@@ -11906,7 +12223,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B158" s="4" t="n">
         <v>0</v>
@@ -11936,7 +12253,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B159" s="4" t="n">
         <v>0</v>
@@ -11966,7 +12283,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B160" s="4" t="n">
         <v>1703</v>
@@ -11996,7 +12313,7 @@
     </row>
     <row r="161" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B161" s="4" t="n">
         <v>9</v>
@@ -12026,7 +12343,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B162" s="4" t="n">
         <v>7</v>
@@ -12056,7 +12373,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B163" s="4" t="n">
         <v>476</v>
@@ -12086,7 +12403,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B164" s="4" t="n">
         <v>250</v>
@@ -12116,7 +12433,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>22</v>
@@ -12146,7 +12463,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B166" s="4" t="n">
         <v>1561</v>
@@ -12176,7 +12493,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B167" s="4" t="n">
         <v>398</v>
@@ -12206,7 +12523,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B168" s="4" t="n">
         <v>0</v>
@@ -12236,7 +12553,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B169" s="4" t="n">
         <v>729</v>
@@ -12266,7 +12583,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B170" s="4" t="n">
         <v>199</v>
@@ -12296,7 +12613,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>7128</v>
@@ -12326,7 +12643,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>259</v>
@@ -12356,7 +12673,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>73</v>
@@ -12386,7 +12703,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B174" s="4" t="n">
         <v>32117</v>
@@ -12416,7 +12733,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>16900</v>
@@ -12446,7 +12763,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>495</v>
@@ -12476,7 +12793,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>117136</v>
@@ -12506,7 +12823,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>404</v>
@@ -12536,7 +12853,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>13</v>
@@ -12566,7 +12883,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B180" s="4" t="n">
         <v>2712</v>
@@ -12596,7 +12913,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B181" s="4" t="n">
         <v>327</v>
@@ -12626,7 +12943,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>110</v>
@@ -12656,7 +12973,7 @@
     </row>
     <row r="183" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>134</v>
@@ -12686,7 +13003,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B184" s="4" t="n">
         <v>19</v>
@@ -12716,7 +13033,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B185" s="4" t="n">
         <v>3</v>
@@ -12746,7 +13063,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>0</v>
@@ -12776,7 +13093,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B187" s="4" t="n">
         <v>15</v>
@@ -12806,7 +13123,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B188" s="4" t="n">
         <v>5</v>
@@ -12836,7 +13153,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B189" s="4" t="n">
         <v>5972</v>
@@ -12866,7 +13183,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B190" s="4" t="n">
         <v>6</v>
@@ -12896,7 +13213,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B191" s="4" t="n">
         <v>1237</v>
@@ -12926,7 +13243,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B192" s="4" t="n">
         <v>508571</v>
@@ -12956,7 +13273,7 @@
     </row>
     <row r="193" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B193" s="4" t="n">
         <v>14</v>
@@ -12986,7 +13303,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B194" s="4" t="n">
         <v>375</v>
@@ -13016,7 +13333,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B195" s="4" t="n">
         <v>24524</v>
@@ -13046,7 +13363,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B196" s="4" t="n">
         <v>4</v>
@@ -13076,7 +13393,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B197" s="4" t="n">
         <v>102</v>
@@ -13106,7 +13423,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B198" s="4" t="n">
         <v>5466</v>
@@ -13136,7 +13453,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B199" s="4" t="n">
         <v>223</v>
@@ -13166,7 +13483,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B200" s="4" t="n">
         <v>5714</v>
@@ -13196,7 +13513,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B201" s="4" t="n">
         <v>86749</v>
@@ -13226,7 +13543,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B202" s="4" t="n">
         <v>4</v>
@@ -13256,7 +13573,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B203" s="4" t="n">
         <v>13451</v>
@@ -13286,7 +13603,7 @@
     </row>
     <row r="204" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B204" s="4" t="n">
         <v>0</v>
@@ -13316,7 +13633,7 @@
     </row>
     <row r="205" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B205" s="4" t="n">
         <v>3</v>
@@ -13346,7 +13663,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B206" s="4" t="n">
         <v>8325</v>
@@ -13376,7 +13693,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B207" s="4" t="n">
         <v>49</v>
@@ -13406,7 +13723,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B208" s="4" t="n">
         <v>356</v>
@@ -13436,7 +13753,7 @@
     </row>
     <row r="209" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B209" s="4" t="n">
         <v>0</v>
@@ -13466,7 +13783,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B210" s="4" t="n">
         <v>60</v>
@@ -13496,7 +13813,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B211" s="4" t="n">
         <v>3473</v>
@@ -13526,7 +13843,7 @@
     </row>
     <row r="212" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B212" s="4" t="n">
         <v>0</v>
@@ -13556,7 +13873,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B213" s="4" t="n">
         <v>7586</v>
@@ -13586,7 +13903,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B214" s="4" t="n">
         <v>139</v>
@@ -13616,7 +13933,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B215" s="4" t="n">
         <v>9025</v>
@@ -13646,7 +13963,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B216" s="4" t="n">
         <v>111</v>
@@ -13676,7 +13993,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B217" s="4" t="n">
         <v>3</v>
@@ -13706,7 +14023,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B218" s="4" t="n">
         <v>3</v>
@@ -13736,7 +14053,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B219" s="4" t="n">
         <v>3566</v>
@@ -13766,7 +14083,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B220" s="4" t="n">
         <v>28579</v>
@@ -13796,7 +14113,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B221" s="4" t="n">
         <v>167</v>
@@ -13826,7 +14143,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B222" s="4" t="n">
         <v>7171</v>
@@ -13856,7 +14173,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B223" s="4" t="n">
         <v>245</v>
@@ -13886,7 +14203,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B224" s="4" t="n">
         <v>1601</v>
@@ -13916,7 +14233,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B225" s="4" t="n">
         <v>12730</v>
@@ -13946,7 +14263,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B226" s="4" t="n">
         <v>3</v>
@@ -13976,7 +14293,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B227" s="4" t="n">
         <v>2252</v>
@@ -14006,7 +14323,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B228" s="4" t="n">
         <v>1773</v>
@@ -14036,7 +14353,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B229" s="4" t="n">
         <v>528</v>
@@ -14066,7 +14383,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B230" s="4" t="n">
         <v>824</v>
@@ -14096,7 +14413,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B231" s="4" t="n">
         <v>43058</v>
@@ -14126,7 +14443,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B232" s="4" t="n">
         <v>0</v>
@@ -14156,7 +14473,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B233" s="4" t="n">
         <v>88</v>
@@ -14186,7 +14503,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B234" s="4" t="n">
         <v>7957</v>
@@ -14216,7 +14533,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B235" s="4" t="n">
         <v>977</v>
@@ -14246,7 +14563,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B236" s="4" t="n">
         <v>27</v>
@@ -14276,7 +14593,7 @@
     </row>
     <row r="237" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B237" s="4" t="n">
         <v>51</v>
@@ -14306,7 +14623,7 @@
     </row>
     <row r="238" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B238" s="4" t="n">
         <v>11</v>
@@ -14336,7 +14653,7 @@
     </row>
     <row r="239" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B239" s="4" t="n">
         <v>70</v>
@@ -14366,7 +14683,7 @@
     </row>
     <row r="240" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B240" s="4" t="n">
         <v>0</v>
@@ -14396,7 +14713,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B241" s="4" t="n">
         <v>120</v>
@@ -14426,7 +14743,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B242" s="4" t="n">
         <v>0</v>
@@ -14456,7 +14773,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B243" s="4" t="n">
         <v>6387</v>
@@ -14486,7 +14803,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B244" s="4" t="n">
         <v>0</v>
@@ -14516,7 +14833,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B245" s="4" t="n">
         <v>28732</v>
@@ -14546,7 +14863,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B246" s="4" t="n">
         <v>0</v>
@@ -14576,7 +14893,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B247" s="4" t="n">
         <v>8</v>
@@ -14606,7 +14923,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B248" s="4" t="n">
         <v>15</v>
@@ -14636,7 +14953,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B249" s="4" t="n">
         <v>12</v>
@@ -14666,7 +14983,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B250" s="4" t="n">
         <v>0</v>
@@ -14696,7 +15013,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B251" s="4" t="n">
         <v>0</v>
@@ -14726,7 +15043,7 @@
     </row>
     <row r="252" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B252" s="4" t="n">
         <v>25</v>
@@ -14756,7 +15073,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B253" s="4" t="n">
         <v>0</v>
@@ -14786,7 +15103,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B254" s="4" t="n">
         <v>5093</v>
@@ -14816,7 +15133,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B255" s="4" t="n">
         <v>35</v>
@@ -14846,7 +15163,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B256" s="4" t="n">
         <v>76</v>
@@ -14876,7 +15193,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B257" s="4" t="n">
         <v>3424</v>
@@ -14906,7 +15223,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B258" s="4" t="n">
         <v>3855</v>
@@ -14936,7 +15253,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B259" s="4" t="n">
         <v>9291</v>
@@ -14966,7 +15283,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B260" s="4" t="n">
         <v>13493</v>
@@ -14996,7 +15313,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B261" s="4" t="n">
         <v>49</v>
@@ -15026,7 +15343,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B262" s="4" t="n">
         <v>797</v>
@@ -15056,7 +15373,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B263" s="4" t="n">
         <v>26719</v>
@@ -15086,7 +15403,7 @@
     </row>
     <row r="264" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B264" s="4" t="n">
         <v>16501</v>
@@ -15116,7 +15433,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B265" s="4" t="n">
         <v>2119</v>
@@ -15146,7 +15463,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B266" s="4" t="n">
         <v>83</v>
@@ -15176,7 +15493,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B267" s="4" t="n">
         <v>271</v>
@@ -15206,7 +15523,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B268" s="4" t="n">
         <v>5843</v>
@@ -15236,7 +15553,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B269" s="4" t="n">
         <v>352</v>
@@ -15266,7 +15583,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B270" s="4" t="n">
         <v>220</v>
@@ -15296,7 +15613,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B271" s="4" t="n">
         <v>12808</v>
@@ -15326,7 +15643,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B272" s="4" t="n">
         <v>33</v>
@@ -15356,7 +15673,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B273" s="4" t="n">
         <v>0</v>
@@ -15386,7 +15703,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B274" s="4" t="n">
         <v>21</v>
@@ -15416,7 +15733,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B275" s="4" t="n">
         <v>791</v>
@@ -15446,7 +15763,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B276" s="4" t="n">
         <v>4830</v>
@@ -15476,7 +15793,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B277" s="4" t="n">
         <v>2595</v>
@@ -15506,7 +15823,7 @@
     </row>
     <row r="278" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B278" s="4" t="n">
         <v>1875</v>
@@ -15536,7 +15853,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B279" s="4" t="n">
         <v>30081</v>
@@ -15566,7 +15883,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B280" s="4" t="n">
         <v>6213</v>
@@ -15596,7 +15913,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B281" s="4" t="n">
         <v>500</v>
@@ -15626,7 +15943,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B282" s="4" t="n">
         <v>431</v>
@@ -15656,7 +15973,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B283" s="4" t="n">
         <v>1855</v>
@@ -15686,7 +16003,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B284" s="4" t="n">
         <v>84130</v>
@@ -15716,7 +16033,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B285" s="4" t="n">
         <v>10</v>
@@ -15746,7 +16063,7 @@
     </row>
     <row r="286" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B286" s="4" t="n">
         <v>3</v>
@@ -15776,7 +16093,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B287" s="4" t="n">
         <v>7256</v>
@@ -15806,7 +16123,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B288" s="4" t="n">
         <v>7</v>
@@ -15836,7 +16153,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B289" s="4" t="n">
         <v>0</v>
@@ -15866,7 +16183,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B290" s="4" t="n">
         <v>5</v>
@@ -15896,7 +16213,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B291" s="4" t="n">
         <v>230</v>
@@ -15926,7 +16243,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B292" s="4" t="n">
         <v>1106</v>
@@ -15956,7 +16273,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B293" s="4" t="n">
         <v>6495</v>
@@ -16014,27 +16331,27 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="I1:J7 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16106,44 +16423,44 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="I1:J7 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>664</v>
@@ -16175,7 +16492,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>31125</v>
@@ -16207,7 +16524,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>568289</v>
@@ -16239,7 +16556,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>243659</v>
@@ -16271,7 +16588,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>415486</v>
@@ -16303,7 +16620,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>526570</v>
@@ -16335,7 +16652,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>501698</v>
@@ -16367,7 +16684,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>448014</v>
@@ -16399,7 +16716,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>450649</v>
@@ -16431,7 +16748,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>489370</v>
@@ -16463,7 +16780,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>498807</v>
@@ -16495,7 +16812,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>341092</v>
@@ -16527,7 +16844,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>290547</v>
@@ -16559,7 +16876,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>209058</v>
@@ -16591,7 +16908,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>321562</v>
@@ -16623,7 +16940,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>215643</v>

--- a/data/snapshot_clean.xlsx
+++ b/data/snapshot_clean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="State and Territory of Usual Residence " sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="402">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -103,88 +103,94 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
+    <t xml:space="preserve">Age Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-9 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-14 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-19 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-24 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-29 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-34 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-39 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-44 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-49 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-54 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-59 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-64 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-69 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-74 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-79 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-84 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85 years and over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State and Territory of Usual Residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia (c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal and Torres Strait Islander people(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Indigenous people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous status not stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
     <t xml:space="preserve">Median age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-4 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-9 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-14 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-19 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-24 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-29 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-34 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35-39 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-44 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-49 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-54 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-59 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-64 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-69 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-74 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75-79 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-84 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85 years and over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State and Territory of Usual Residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia (c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aboriginal and Torres Strait Islander people(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Indigenous people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigenous status not stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
   </si>
   <si>
     <t xml:space="preserve">Australia(d)</t>
@@ -1478,11 +1484,11 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="I1:J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
@@ -2021,21 +2027,21 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="I1:J7 F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>11</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8861623</v>
@@ -2212,33 +2218,33 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>0</v>
@@ -2678,24 +2684,24 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="I1:J7 G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -2705,7 +2711,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>6968</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>35957</v>
@@ -2743,7 +2749,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>61008</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>64271</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>67871</v>
@@ -2800,7 +2806,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>73725</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>79962</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>84423</v>
@@ -2857,7 +2863,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>81478</v>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>79520</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>63419</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>50113</v>
@@ -2933,7 +2939,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>40556</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>36467</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>33345</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>6848</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>34052</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>58315</v>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>66403</v>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>62759</v>
@@ -3077,7 +3083,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>69417</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>79040</v>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>87678</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>92202</v>
@@ -3145,7 +3151,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>87450</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>83587</v>
@@ -3179,7 +3185,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>63521</v>
@@ -3196,7 +3202,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>47823</v>
@@ -3213,7 +3219,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>36343</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>40531</v>
@@ -3263,11 +3269,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="I1:J7 B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.29"/>
@@ -3286,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.8</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.6</v>
@@ -3508,30 +3514,30 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I1:J7 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>0</v>
@@ -3923,24 +3929,24 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="I1:J7 C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
@@ -4236,21 +4242,21 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>11</v>
@@ -4258,7 +4264,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -4275,7 +4281,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -4292,7 +4298,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -4309,7 +4315,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -4343,7 +4349,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -4410,26 +4416,26 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I1:J7 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="19" t="n">
         <v>464</v>
@@ -4440,7 +4446,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="19" t="n">
         <v>5328</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19" t="n">
         <v>11923</v>
@@ -4462,7 +4468,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="19" t="n">
         <v>13976</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="19" t="n">
         <v>12238</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="19" t="n">
         <v>11257</v>
@@ -4495,7 +4501,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="19" t="n">
         <v>10751</v>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>9004</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>6299</v>
@@ -4528,7 +4534,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>4063</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="19" t="n">
         <v>2631</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>1252</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19" t="n">
         <v>537</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19" t="n">
         <v>236</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="16" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="19" t="n">
         <v>114</v>
@@ -4610,27 +4616,27 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -4974,30 +4980,30 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I1:J7 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,11 +5344,11 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
@@ -5468,13 +5474,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="I1:J7 B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5489,127 +5495,19 @@
       <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>729969</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>694561</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>703308</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>722378</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>741120</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>754466</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>719654</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>747117</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>754569</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>740962</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>711741</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>637839</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>597885</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>455420</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>342691</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>252930</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>188242</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>139162</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>10634014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,67 +5515,13 @@
         <v>2011</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>691079</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>657360</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>667746</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>683420</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>719555</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>758771</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>734122</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>773020</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>788310</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>763180</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>735662</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>659406</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>608231</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>463899</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>365398</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>292333</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>248695</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>263518</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>10873705</v>
+        <v>694561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,270 +5529,1566 @@
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1421050</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1351921</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1371054</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1405798</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1460674</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1513236</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1453775</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1520138</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1542879</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1504143</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1447404</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>1297244</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1206116</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>919319</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>708090</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>545263</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>436937</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>402681</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>21507719</v>
+        <v>703308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>752142</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>771055</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>717629</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>727677</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>795423</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>824084</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>839821</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>773132</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>777702</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>773170</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>748954</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>709115</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>632357</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>581230</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>431325</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>307441</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>204026</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>180351</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>11546638</v>
+        <v>722378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>712638</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>731592</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>679553</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>693915</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>771369</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>840525</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>864026</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>788548</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>805551</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>808282</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>774601</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>745214</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>667048</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>607766</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>456390</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>345217</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>256529</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>306494</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>11855248</v>
+        <v>741120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>754466</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>719654</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>747117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>754569</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>740962</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>711741</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>637839</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>597885</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>455420</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>342691</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>252930</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>188242</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>139162</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10634014</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>691079</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>657360</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>667746</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>683420</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>719555</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>758771</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>734122</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>773020</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>788310</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>763180</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>735662</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>659406</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>608231</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>463899</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>365398</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>292333</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>248695</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>263518</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10873705</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1421050</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1351921</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1371054</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1405798</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1460674</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1513236</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1453775</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1520138</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1542879</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1504143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1447404</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1297244</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1206116</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>919319</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>708090</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>545263</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>436937</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>402681</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>21507719</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>752142</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>771055</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>717629</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>727677</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>795423</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>824084</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>839821</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>773132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>777702</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>773170</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>748954</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>709115</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>632357</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>581230</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>431325</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>307441</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>204026</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>180351</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>11546638</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>712638</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>731592</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>679553</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>693915</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>771369</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>840525</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>864026</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>788548</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>805551</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>808282</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>774601</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>745214</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>667048</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>607766</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D92" s="0" t="n">
+        <v>456390</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>345217</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>256529</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>306494</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>11855248</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="0" t="n">
         <v>1464779</v>
       </c>
-      <c r="E7" s="0" t="n">
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="0" t="n">
         <v>1502646</v>
       </c>
-      <c r="F7" s="0" t="n">
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="0" t="n">
         <v>1397183</v>
       </c>
-      <c r="G7" s="0" t="n">
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="0" t="n">
         <v>1421595</v>
       </c>
-      <c r="H7" s="0" t="n">
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="0" t="n">
         <v>1566793</v>
       </c>
-      <c r="I7" s="0" t="n">
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="0" t="n">
         <v>1664602</v>
       </c>
-      <c r="J7" s="0" t="n">
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="0" t="n">
         <v>1703847</v>
       </c>
-      <c r="K7" s="0" t="n">
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="0" t="n">
         <v>1561679</v>
       </c>
-      <c r="L7" s="0" t="n">
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="0" t="n">
         <v>1583257</v>
       </c>
-      <c r="M7" s="0" t="n">
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="0" t="n">
         <v>1581455</v>
       </c>
-      <c r="N7" s="0" t="n">
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="0" t="n">
         <v>1523551</v>
       </c>
-      <c r="O7" s="0" t="n">
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="0" t="n">
         <v>1454332</v>
       </c>
-      <c r="P7" s="0" t="n">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="0" t="n">
         <v>1299397</v>
       </c>
-      <c r="Q7" s="0" t="n">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="0" t="n">
         <v>1188999</v>
       </c>
-      <c r="R7" s="0" t="n">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="0" t="n">
         <v>887716</v>
       </c>
-      <c r="S7" s="0" t="n">
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="0" t="n">
         <v>652657</v>
       </c>
-      <c r="T7" s="0" t="n">
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="0" t="n">
         <v>460549</v>
       </c>
-      <c r="U7" s="0" t="n">
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="0" t="n">
         <v>486842</v>
       </c>
-      <c r="V7" s="0" t="n">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="0" t="n">
         <v>23401892</v>
       </c>
     </row>
@@ -5970,11 +7110,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="I1:J7 G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.62"/>
@@ -5991,7 +7131,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -6021,12 +7161,12 @@
         <v>10</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6061,7 +7201,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6096,7 +7236,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6166,7 +7306,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -6201,7 +7341,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -6236,7 +7376,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -6322,27 +7462,27 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="I1:J7 I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>11</v>
@@ -6350,7 +7490,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6370,7 +7510,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6390,7 +7530,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6410,7 +7550,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6430,7 +7570,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2011</v>
@@ -6450,7 +7590,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2011</v>
@@ -6470,7 +7610,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2011</v>
@@ -6490,7 +7630,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2011</v>
@@ -6510,7 +7650,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2011</v>
@@ -6530,7 +7670,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2011</v>
@@ -6550,7 +7690,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2011</v>
@@ -6570,7 +7710,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2011</v>
@@ -6590,7 +7730,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2011</v>
@@ -6610,7 +7750,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2011</v>
@@ -6630,7 +7770,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2011</v>
@@ -6650,7 +7790,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -6670,7 +7810,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -6690,7 +7830,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -6710,7 +7850,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -6750,7 +7890,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2016</v>
@@ -6770,7 +7910,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2016</v>
@@ -6790,7 +7930,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2016</v>
@@ -6810,7 +7950,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2016</v>
@@ -6830,7 +7970,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2016</v>
@@ -6850,7 +7990,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2016</v>
@@ -6870,7 +8010,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2016</v>
@@ -6890,7 +8030,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2016</v>
@@ -6910,7 +8050,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2016</v>
@@ -6930,7 +8070,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2016</v>
@@ -6950,7 +8090,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2016</v>
@@ -6970,7 +8110,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2016</v>
@@ -6990,7 +8130,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2016</v>
@@ -7010,7 +8150,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2016</v>
@@ -7030,7 +8170,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2016</v>
@@ -7050,7 +8190,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2016</v>
@@ -7070,7 +8210,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2016</v>
@@ -7090,7 +8230,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2016</v>
@@ -7110,7 +8250,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2016</v>
@@ -7166,11 +8306,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="I1:J7 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
@@ -7198,12 +8338,12 @@
         <v>10</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -7238,7 +8378,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -7273,7 +8413,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -7343,7 +8483,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -7378,7 +8518,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -7413,7 +8553,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -7499,11 +8639,11 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="1" sqref="I1:J7 A300"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.33"/>
@@ -7513,7 +8653,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -7543,7 +8683,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -7573,7 +8713,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>13032</v>
@@ -7603,7 +8743,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>4</v>
@@ -7633,7 +8773,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>315</v>
@@ -7663,7 +8803,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>584</v>
@@ -7693,7 +8833,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
@@ -7723,7 +8863,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>11</v>
@@ -7753,7 +8893,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>150</v>
@@ -7783,7 +8923,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>11</v>
@@ -7813,7 +8953,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>6</v>
@@ -7843,7 +8983,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>7</v>
@@ -7873,7 +9013,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>6244</v>
@@ -7903,7 +9043,7 @@
     </row>
     <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>0</v>
@@ -7933,7 +9073,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>644</v>
@@ -7963,7 +9103,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>18</v>
@@ -7993,7 +9133,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>36</v>
@@ -8023,7 +9163,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>4899090</v>
@@ -8053,7 +9193,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>0</v>
@@ -8083,7 +9223,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>0</v>
@@ -8113,7 +9253,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0</v>
@@ -8143,7 +9283,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>5172</v>
@@ -8173,7 +9313,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>160</v>
@@ -8203,7 +9343,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>64</v>
@@ -8233,7 +9373,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>517</v>
@@ -8263,7 +9403,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24217</v>
@@ -8293,7 +9433,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>78</v>
@@ -8323,7 +9463,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>472</v>
@@ -8353,7 +9493,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>2026</v>
@@ -8383,7 +9523,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>25</v>
@@ -8413,7 +9553,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>19</v>
@@ -8443,7 +9583,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>136</v>
@@ -8473,7 +9613,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>674</v>
@@ -8503,7 +9643,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>526</v>
@@ -8533,7 +9673,7 @@
     </row>
     <row r="35" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>0</v>
@@ -8563,7 +9703,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>7095</v>
@@ -8593,7 +9733,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>233</v>
@@ -8623,7 +9763,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>12314</v>
@@ -8653,7 +9793,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>0</v>
@@ -8683,7 +9823,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>492</v>
@@ -8713,7 +9853,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>1059</v>
@@ -8743,7 +9883,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>20</v>
@@ -8773,7 +9913,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>209</v>
@@ -8803,7 +9943,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
@@ -8833,7 +9973,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>12439</v>
@@ -8863,7 +10003,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>99</v>
@@ -8893,7 +10033,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>13290</v>
@@ -8923,7 +10063,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>23</v>
@@ -8953,7 +10093,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>38</v>
@@ -8983,7 +10123,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>0</v>
@@ -9013,7 +10153,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>3</v>
@@ -9043,7 +10183,7 @@
     </row>
     <row r="52" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>26</v>
@@ -9073,7 +10213,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>3</v>
@@ -9103,7 +10243,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>15</v>
@@ -9133,7 +10273,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>13058</v>
@@ -9163,7 +10303,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>0</v>
@@ -9193,7 +10333,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>234508</v>
@@ -9223,7 +10363,7 @@
     </row>
     <row r="58" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>5</v>
@@ -9253,7 +10393,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>6742</v>
@@ -9283,7 +10423,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>0</v>
@@ -9313,7 +10453,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>551</v>
@@ -9343,7 +10483,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>246</v>
@@ -9373,7 +10513,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4" t="n">
         <v>2208</v>
@@ -9403,7 +10543,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="4" t="n">
         <v>174</v>
@@ -9433,7 +10573,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4" t="n">
         <v>109</v>
@@ -9463,7 +10603,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="4" t="n">
         <v>15638</v>
@@ -9493,7 +10633,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="4" t="n">
         <v>292</v>
@@ -9523,7 +10663,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="4" t="n">
         <v>41</v>
@@ -9553,7 +10693,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="4" t="n">
         <v>6239</v>
@@ -9583,7 +10723,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="4" t="n">
         <v>3310</v>
@@ -9613,7 +10753,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="4" t="n">
         <v>2630</v>
@@ -9643,7 +10783,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="4" t="n">
         <v>28</v>
@@ -9673,7 +10813,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>6</v>
@@ -9703,7 +10843,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>51</v>
@@ -9733,7 +10873,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B75" s="4" t="n">
         <v>1699</v>
@@ -9763,7 +10903,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" s="4" t="n">
         <v>1356</v>
@@ -9793,7 +10933,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="n">
         <v>19724</v>
@@ -9823,7 +10963,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="n">
         <v>1842</v>
@@ -9853,7 +10993,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B79" s="4" t="n">
         <v>226564</v>
@@ -9883,7 +11023,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" s="4" t="n">
         <v>9</v>
@@ -9913,7 +11053,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81" s="4" t="n">
         <v>287</v>
@@ -9943,7 +11083,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="4" t="n">
         <v>759</v>
@@ -9973,7 +11113,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1260</v>
@@ -10003,7 +11143,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B84" s="4" t="n">
         <v>24</v>
@@ -10033,7 +11173,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="4" t="n">
         <v>3</v>
@@ -10063,7 +11203,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B86" s="4" t="n">
         <v>33879</v>
@@ -10093,7 +11233,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="n">
         <v>2267</v>
@@ -10123,7 +11263,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B88" s="4" t="n">
         <v>11540</v>
@@ -10153,7 +11293,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="4" t="n">
         <v>3</v>
@@ -10183,7 +11323,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B90" s="4" t="n">
         <v>157</v>
@@ -10213,7 +11353,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="4" t="n">
         <v>21</v>
@@ -10243,7 +11383,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B92" s="4" t="n">
         <v>47</v>
@@ -10273,7 +11413,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="4" t="n">
         <v>1632</v>
@@ -10303,7 +11443,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" s="4" t="n">
         <v>186</v>
@@ -10333,7 +11473,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" s="4" t="n">
         <v>29541</v>
@@ -10363,7 +11503,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B96" s="4" t="n">
         <v>2432</v>
@@ -10393,7 +11533,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="4" t="n">
         <v>95</v>
@@ -10423,7 +11563,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B98" s="4" t="n">
         <v>29481</v>
@@ -10453,7 +11593,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B99" s="4" t="n">
         <v>10</v>
@@ -10483,7 +11623,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B100" s="4" t="n">
         <v>54</v>
@@ -10513,7 +11653,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
@@ -10543,7 +11683,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B102" s="4" t="n">
         <v>31</v>
@@ -10573,7 +11713,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B103" s="4" t="n">
         <v>142</v>
@@ -10603,7 +11743,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104" s="4" t="n">
         <v>153</v>
@@ -10633,7 +11773,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>238</v>
@@ -10663,7 +11803,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>14</v>
@@ -10693,7 +11833,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>164</v>
@@ -10723,7 +11863,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B108" s="4" t="n">
         <v>38</v>
@@ -10753,7 +11893,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>0</v>
@@ -10783,7 +11923,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B110" s="4" t="n">
         <v>99</v>
@@ -10813,7 +11953,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B111" s="4" t="n">
         <v>42347</v>
@@ -10843,7 +11983,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B112" s="4" t="n">
         <v>6420</v>
@@ -10873,7 +12013,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B113" s="4" t="n">
         <v>127</v>
@@ -10903,7 +12043,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B114" s="4" t="n">
         <v>4386</v>
@@ -10933,7 +12073,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B115" s="4" t="n">
         <v>143459</v>
@@ -10963,7 +12103,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B116" s="4" t="n">
         <v>31774</v>
@@ -10993,7 +12133,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B117" s="4" t="n">
         <v>23048</v>
@@ -11023,7 +12163,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B118" s="4" t="n">
         <v>40271</v>
@@ -11053,7 +12193,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B119" s="4" t="n">
         <v>24038</v>
@@ -11083,7 +12223,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B120" s="4" t="n">
         <v>168</v>
@@ -11113,7 +12253,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B121" s="4" t="n">
         <v>3594</v>
@@ -11143,7 +12283,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B122" s="4" t="n">
         <v>49476</v>
@@ -11173,7 +12313,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B123" s="4" t="n">
         <v>299</v>
@@ -11203,7 +12343,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B124" s="4" t="n">
         <v>14008</v>
@@ -11233,7 +12373,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B125" s="4" t="n">
         <v>0</v>
@@ -11263,7 +12403,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B126" s="4" t="n">
         <v>311</v>
@@ -11293,7 +12433,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B127" s="4" t="n">
         <v>3785</v>
@@ -11323,7 +12463,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B128" s="4" t="n">
         <v>491</v>
@@ -11353,7 +12493,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B129" s="4" t="n">
         <v>3197</v>
@@ -11383,7 +12523,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B130" s="4" t="n">
         <v>110</v>
@@ -11413,7 +12553,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B131" s="4" t="n">
         <v>47</v>
@@ -11443,7 +12583,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B132" s="4" t="n">
         <v>51816</v>
@@ -11473,7 +12613,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B133" s="4" t="n">
         <v>217</v>
@@ -11503,7 +12643,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B134" s="4" t="n">
         <v>2603</v>
@@ -11533,7 +12673,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B135" s="4" t="n">
         <v>105</v>
@@ -11563,7 +12703,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B136" s="4" t="n">
         <v>5227</v>
@@ -11593,7 +12733,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B137" s="4" t="n">
         <v>1144</v>
@@ -11623,7 +12763,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B138" s="4" t="n">
         <v>57381</v>
@@ -11653,7 +12793,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B139" s="4" t="n">
         <v>42</v>
@@ -11683,7 +12823,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B140" s="4" t="n">
         <v>600</v>
@@ -11713,7 +12853,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B141" s="4" t="n">
         <v>702</v>
@@ -11743,7 +12883,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B142" s="4" t="n">
         <v>5</v>
@@ -11773,7 +12913,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B143" s="4" t="n">
         <v>1022</v>
@@ -11803,7 +12943,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B144" s="4" t="n">
         <v>69</v>
@@ -11833,7 +12973,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B145" s="4" t="n">
         <v>1212</v>
@@ -11863,7 +13003,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B146" s="4" t="n">
         <v>62</v>
@@ -11893,7 +13033,7 @@
     </row>
     <row r="147" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B147" s="4" t="n">
         <v>3</v>
@@ -11923,7 +13063,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B148" s="4" t="n">
         <v>202</v>
@@ -11953,7 +13093,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B149" s="4" t="n">
         <v>31655</v>
@@ -11983,7 +13123,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B150" s="4" t="n">
         <v>61</v>
@@ -12013,7 +13153,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B151" s="4" t="n">
         <v>18</v>
@@ -12043,7 +13183,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>14481</v>
@@ -12073,7 +13213,7 @@
     </row>
     <row r="153" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B153" s="4" t="n">
         <v>42</v>
@@ -12103,7 +13243,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B154" s="4" t="n">
         <v>6</v>
@@ -12133,7 +13273,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B155" s="4" t="n">
         <v>3</v>
@@ -12163,7 +13303,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B156" s="4" t="n">
         <v>27</v>
@@ -12193,7 +13333,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B157" s="4" t="n">
         <v>5731</v>
@@ -12223,7 +13363,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B158" s="4" t="n">
         <v>0</v>
@@ -12253,7 +13393,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B159" s="4" t="n">
         <v>0</v>
@@ -12283,7 +13423,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B160" s="4" t="n">
         <v>1703</v>
@@ -12313,7 +13453,7 @@
     </row>
     <row r="161" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B161" s="4" t="n">
         <v>9</v>
@@ -12343,7 +13483,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B162" s="4" t="n">
         <v>7</v>
@@ -12373,7 +13513,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B163" s="4" t="n">
         <v>476</v>
@@ -12403,7 +13543,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B164" s="4" t="n">
         <v>250</v>
@@ -12433,7 +13573,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>22</v>
@@ -12463,7 +13603,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B166" s="4" t="n">
         <v>1561</v>
@@ -12493,7 +13633,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B167" s="4" t="n">
         <v>398</v>
@@ -12523,7 +13663,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B168" s="4" t="n">
         <v>0</v>
@@ -12553,7 +13693,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B169" s="4" t="n">
         <v>729</v>
@@ -12583,7 +13723,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B170" s="4" t="n">
         <v>199</v>
@@ -12613,7 +13753,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>7128</v>
@@ -12643,7 +13783,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>259</v>
@@ -12673,7 +13813,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>73</v>
@@ -12703,7 +13843,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B174" s="4" t="n">
         <v>32117</v>
@@ -12733,7 +13873,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>16900</v>
@@ -12763,7 +13903,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>495</v>
@@ -12793,7 +13933,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>117136</v>
@@ -12823,7 +13963,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>404</v>
@@ -12853,7 +13993,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>13</v>
@@ -12883,7 +14023,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B180" s="4" t="n">
         <v>2712</v>
@@ -12913,7 +14053,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B181" s="4" t="n">
         <v>327</v>
@@ -12943,7 +14083,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>110</v>
@@ -12973,7 +14113,7 @@
     </row>
     <row r="183" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>134</v>
@@ -13003,7 +14143,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B184" s="4" t="n">
         <v>19</v>
@@ -13033,7 +14173,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B185" s="4" t="n">
         <v>3</v>
@@ -13063,7 +14203,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>0</v>
@@ -13093,7 +14233,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B187" s="4" t="n">
         <v>15</v>
@@ -13123,7 +14263,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B188" s="4" t="n">
         <v>5</v>
@@ -13153,7 +14293,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B189" s="4" t="n">
         <v>5972</v>
@@ -13183,7 +14323,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B190" s="4" t="n">
         <v>6</v>
@@ -13213,7 +14353,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B191" s="4" t="n">
         <v>1237</v>
@@ -13243,7 +14383,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B192" s="4" t="n">
         <v>508571</v>
@@ -13273,7 +14413,7 @@
     </row>
     <row r="193" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B193" s="4" t="n">
         <v>14</v>
@@ -13303,7 +14443,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B194" s="4" t="n">
         <v>375</v>
@@ -13333,7 +14473,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B195" s="4" t="n">
         <v>24524</v>
@@ -13363,7 +14503,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B196" s="4" t="n">
         <v>4</v>
@@ -13393,7 +14533,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B197" s="4" t="n">
         <v>102</v>
@@ -13423,7 +14563,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B198" s="4" t="n">
         <v>5466</v>
@@ -13453,7 +14593,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B199" s="4" t="n">
         <v>223</v>
@@ -13483,7 +14623,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B200" s="4" t="n">
         <v>5714</v>
@@ -13513,7 +14653,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B201" s="4" t="n">
         <v>86749</v>
@@ -13543,7 +14683,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B202" s="4" t="n">
         <v>4</v>
@@ -13573,7 +14713,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B203" s="4" t="n">
         <v>13451</v>
@@ -13603,7 +14743,7 @@
     </row>
     <row r="204" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B204" s="4" t="n">
         <v>0</v>
@@ -13633,7 +14773,7 @@
     </row>
     <row r="205" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B205" s="4" t="n">
         <v>3</v>
@@ -13663,7 +14803,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B206" s="4" t="n">
         <v>8325</v>
@@ -13693,7 +14833,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B207" s="4" t="n">
         <v>49</v>
@@ -13723,7 +14863,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B208" s="4" t="n">
         <v>356</v>
@@ -13753,7 +14893,7 @@
     </row>
     <row r="209" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B209" s="4" t="n">
         <v>0</v>
@@ -13783,7 +14923,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B210" s="4" t="n">
         <v>60</v>
@@ -13813,7 +14953,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B211" s="4" t="n">
         <v>3473</v>
@@ -13843,7 +14983,7 @@
     </row>
     <row r="212" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B212" s="4" t="n">
         <v>0</v>
@@ -13873,7 +15013,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B213" s="4" t="n">
         <v>7586</v>
@@ -13903,7 +15043,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B214" s="4" t="n">
         <v>139</v>
@@ -13933,7 +15073,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B215" s="4" t="n">
         <v>9025</v>
@@ -13963,7 +15103,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B216" s="4" t="n">
         <v>111</v>
@@ -13993,7 +15133,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B217" s="4" t="n">
         <v>3</v>
@@ -14023,7 +15163,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B218" s="4" t="n">
         <v>3</v>
@@ -14053,7 +15193,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B219" s="4" t="n">
         <v>3566</v>
@@ -14083,7 +15223,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B220" s="4" t="n">
         <v>28579</v>
@@ -14113,7 +15253,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B221" s="4" t="n">
         <v>167</v>
@@ -14143,7 +15283,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B222" s="4" t="n">
         <v>7171</v>
@@ -14173,7 +15313,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B223" s="4" t="n">
         <v>245</v>
@@ -14203,7 +15343,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B224" s="4" t="n">
         <v>1601</v>
@@ -14233,7 +15373,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B225" s="4" t="n">
         <v>12730</v>
@@ -14263,7 +15403,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B226" s="4" t="n">
         <v>3</v>
@@ -14293,7 +15433,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B227" s="4" t="n">
         <v>2252</v>
@@ -14323,7 +15463,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B228" s="4" t="n">
         <v>1773</v>
@@ -14353,7 +15493,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B229" s="4" t="n">
         <v>528</v>
@@ -14383,7 +15523,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B230" s="4" t="n">
         <v>824</v>
@@ -14413,7 +15553,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B231" s="4" t="n">
         <v>43058</v>
@@ -14443,7 +15583,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B232" s="4" t="n">
         <v>0</v>
@@ -14473,7 +15613,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B233" s="4" t="n">
         <v>88</v>
@@ -14503,7 +15643,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B234" s="4" t="n">
         <v>7957</v>
@@ -14533,7 +15673,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B235" s="4" t="n">
         <v>977</v>
@@ -14563,7 +15703,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B236" s="4" t="n">
         <v>27</v>
@@ -14593,7 +15733,7 @@
     </row>
     <row r="237" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B237" s="4" t="n">
         <v>51</v>
@@ -14623,7 +15763,7 @@
     </row>
     <row r="238" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B238" s="4" t="n">
         <v>11</v>
@@ -14653,7 +15793,7 @@
     </row>
     <row r="239" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B239" s="4" t="n">
         <v>70</v>
@@ -14683,7 +15823,7 @@
     </row>
     <row r="240" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B240" s="4" t="n">
         <v>0</v>
@@ -14713,7 +15853,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B241" s="4" t="n">
         <v>120</v>
@@ -14743,7 +15883,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B242" s="4" t="n">
         <v>0</v>
@@ -14773,7 +15913,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B243" s="4" t="n">
         <v>6387</v>
@@ -14803,7 +15943,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B244" s="4" t="n">
         <v>0</v>
@@ -14833,7 +15973,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B245" s="4" t="n">
         <v>28732</v>
@@ -14863,7 +16003,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B246" s="4" t="n">
         <v>0</v>
@@ -14893,7 +16033,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B247" s="4" t="n">
         <v>8</v>
@@ -14923,7 +16063,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B248" s="4" t="n">
         <v>15</v>
@@ -14953,7 +16093,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B249" s="4" t="n">
         <v>12</v>
@@ -14983,7 +16123,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B250" s="4" t="n">
         <v>0</v>
@@ -15013,7 +16153,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B251" s="4" t="n">
         <v>0</v>
@@ -15043,7 +16183,7 @@
     </row>
     <row r="252" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B252" s="4" t="n">
         <v>25</v>
@@ -15073,7 +16213,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B253" s="4" t="n">
         <v>0</v>
@@ -15103,7 +16243,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B254" s="4" t="n">
         <v>5093</v>
@@ -15133,7 +16273,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B255" s="4" t="n">
         <v>35</v>
@@ -15163,7 +16303,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B256" s="4" t="n">
         <v>76</v>
@@ -15193,7 +16333,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B257" s="4" t="n">
         <v>3424</v>
@@ -15223,7 +16363,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B258" s="4" t="n">
         <v>3855</v>
@@ -15253,7 +16393,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B259" s="4" t="n">
         <v>9291</v>
@@ -15283,7 +16423,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B260" s="4" t="n">
         <v>13493</v>
@@ -15313,7 +16453,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B261" s="4" t="n">
         <v>49</v>
@@ -15343,7 +16483,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B262" s="4" t="n">
         <v>797</v>
@@ -15373,7 +16513,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B263" s="4" t="n">
         <v>26719</v>
@@ -15403,7 +16543,7 @@
     </row>
     <row r="264" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B264" s="4" t="n">
         <v>16501</v>
@@ -15433,7 +16573,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B265" s="4" t="n">
         <v>2119</v>
@@ -15463,7 +16603,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B266" s="4" t="n">
         <v>83</v>
@@ -15493,7 +16633,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B267" s="4" t="n">
         <v>271</v>
@@ -15523,7 +16663,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B268" s="4" t="n">
         <v>5843</v>
@@ -15553,7 +16693,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B269" s="4" t="n">
         <v>352</v>
@@ -15583,7 +16723,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B270" s="4" t="n">
         <v>220</v>
@@ -15613,7 +16753,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B271" s="4" t="n">
         <v>12808</v>
@@ -15643,7 +16783,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B272" s="4" t="n">
         <v>33</v>
@@ -15673,7 +16813,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B273" s="4" t="n">
         <v>0</v>
@@ -15703,7 +16843,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B274" s="4" t="n">
         <v>21</v>
@@ -15733,7 +16873,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B275" s="4" t="n">
         <v>791</v>
@@ -15763,7 +16903,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B276" s="4" t="n">
         <v>4830</v>
@@ -15793,7 +16933,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B277" s="4" t="n">
         <v>2595</v>
@@ -15823,7 +16963,7 @@
     </row>
     <row r="278" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B278" s="4" t="n">
         <v>1875</v>
@@ -15853,7 +16993,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B279" s="4" t="n">
         <v>30081</v>
@@ -15883,7 +17023,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B280" s="4" t="n">
         <v>6213</v>
@@ -15913,7 +17053,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B281" s="4" t="n">
         <v>500</v>
@@ -15943,7 +17083,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B282" s="4" t="n">
         <v>431</v>
@@ -15973,7 +17113,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B283" s="4" t="n">
         <v>1855</v>
@@ -16003,7 +17143,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B284" s="4" t="n">
         <v>84130</v>
@@ -16033,7 +17173,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B285" s="4" t="n">
         <v>10</v>
@@ -16063,7 +17203,7 @@
     </row>
     <row r="286" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B286" s="4" t="n">
         <v>3</v>
@@ -16093,7 +17233,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B287" s="4" t="n">
         <v>7256</v>
@@ -16123,7 +17263,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B288" s="4" t="n">
         <v>7</v>
@@ -16153,7 +17293,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B289" s="4" t="n">
         <v>0</v>
@@ -16183,7 +17323,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B290" s="4" t="n">
         <v>5</v>
@@ -16213,7 +17353,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B291" s="4" t="n">
         <v>230</v>
@@ -16243,7 +17383,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B292" s="4" t="n">
         <v>1106</v>
@@ -16273,7 +17413,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B293" s="4" t="n">
         <v>6495</v>
@@ -16331,24 +17471,24 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="I1:J7 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>11</v>
@@ -16423,11 +17563,11 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="I1:J7 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16455,12 +17595,12 @@
         <v>10</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>664</v>
@@ -16492,7 +17632,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>31125</v>
@@ -16524,7 +17664,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>568289</v>
@@ -16556,7 +17696,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>243659</v>
@@ -16588,7 +17728,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>415486</v>
@@ -16620,7 +17760,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>526570</v>
@@ -16652,7 +17792,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>501698</v>
@@ -16684,7 +17824,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>448014</v>
@@ -16716,7 +17856,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>450649</v>
@@ -16748,7 +17888,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>489370</v>
@@ -16780,7 +17920,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>498807</v>
@@ -16812,7 +17952,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>341092</v>
@@ -16844,7 +17984,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>290547</v>
@@ -16876,7 +18016,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>209058</v>
@@ -16908,7 +18048,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>321562</v>
@@ -16940,7 +18080,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>215643</v>

--- a/data/snapshot_clean.xlsx
+++ b/data/snapshot_clean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="State and Territory of Usual Residence " sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="401">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">Queensland</t>
@@ -1476,13 +1479,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="I1:J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
@@ -1573,6 +1576,9 @@
       <c r="C7" s="0" t="n">
         <v>3220217</v>
       </c>
+      <c r="J7" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1623,7 +1629,7 @@
         <v>1966</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1674324</v>
@@ -1634,7 +1640,7 @@
         <v>1991</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2887505</v>
@@ -1645,7 +1651,7 @@
         <v>2006</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3904531</v>
@@ -1656,7 +1662,7 @@
         <v>2011</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4332738</v>
@@ -1667,7 +1673,7 @@
         <v>2016</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4703193</v>
@@ -1678,7 +1684,7 @@
         <v>1966</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1094984</v>
@@ -1689,7 +1695,7 @@
         <v>1991</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1408623</v>
@@ -1700,7 +1706,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1514340</v>
@@ -1711,7 +1717,7 @@
         <v>2011</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1596570</v>
@@ -1722,7 +1728,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1676653</v>
@@ -1733,7 +1739,7 @@
         <v>1966</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>848100</v>
@@ -1744,7 +1750,7 @@
         <v>1991</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1576334</v>
@@ -1755,7 +1761,7 @@
         <v>2006</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1959087</v>
@@ -1766,7 +1772,7 @@
         <v>2011</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2239171</v>
@@ -1777,7 +1783,7 @@
         <v>2016</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2474410</v>
@@ -1788,7 +1794,7 @@
         <v>1966</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>371436</v>
@@ -1799,7 +1805,7 @@
         <v>1991</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>456219</v>
@@ -1810,7 +1816,7 @@
         <v>2006</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>476481</v>
@@ -1821,7 +1827,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>495352</v>
@@ -1832,7 +1838,7 @@
         <v>2016</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>509965</v>
@@ -1843,7 +1849,7 @@
         <v>1966</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>56504</v>
@@ -1854,7 +1860,7 @@
         <v>1991</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>159300</v>
@@ -1865,7 +1871,7 @@
         <v>2006</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>192899</v>
@@ -1876,7 +1882,7 @@
         <v>2011</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>211944</v>
@@ -1887,7 +1893,7 @@
         <v>2016</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>228833</v>
@@ -1898,7 +1904,7 @@
         <v>1966</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>96032</v>
@@ -1909,7 +1915,7 @@
         <v>1991</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>280868</v>
@@ -1920,7 +1926,7 @@
         <v>2006</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>324034</v>
@@ -1931,7 +1937,7 @@
         <v>2011</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>357218</v>
@@ -1942,7 +1948,7 @@
         <v>2016</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>397397</v>
@@ -1953,7 +1959,7 @@
         <v>1966</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>11599497</v>
@@ -1964,7 +1970,7 @@
         <v>1991</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>16771700</v>
@@ -1975,7 +1981,7 @@
         <v>2006</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>19855288</v>
@@ -1986,7 +1992,7 @@
         <v>2011</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>21507717</v>
@@ -1997,7 +2003,7 @@
         <v>2016</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>23401892</v>
@@ -2022,23 +2028,23 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="I1:J7 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2083,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1791739</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>673541</v>
@@ -2111,7 +2117,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>938092</v>
@@ -2128,7 +2134,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>209614</v>
@@ -2145,7 +2151,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>79246</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>150693</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8861623</v>
@@ -2213,32 +2219,32 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>0</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>728631</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>370091</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>396766</v>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>118725</v>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>32130</v>
@@ -2428,7 +2434,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>68686</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1159701</v>
@@ -2532,7 +2538,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>430095</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>616131</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>130836</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>44026</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>98633</v>
@@ -2679,23 +2685,23 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="I1:J7 G27"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -2705,7 +2711,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>6968</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>35957</v>
@@ -2743,7 +2749,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>61008</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>64271</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>67871</v>
@@ -2800,7 +2806,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>73725</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>79962</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>84423</v>
@@ -2857,7 +2863,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>81478</v>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>79520</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>63419</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>50113</v>
@@ -2933,7 +2939,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>40556</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>36467</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>33345</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>6848</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>34052</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>58315</v>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>66403</v>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>62759</v>
@@ -3077,7 +3083,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>69417</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>79040</v>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>87678</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>92202</v>
@@ -3145,7 +3151,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>87450</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>83587</v>
@@ -3179,7 +3185,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>63521</v>
@@ -3196,7 +3202,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>47823</v>
@@ -3213,7 +3219,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>36343</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>40531</v>
@@ -3264,10 +3270,10 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="I1:J7 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.29"/>
@@ -3286,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -3338,7 +3344,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.8</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2.6</v>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2.6</v>
@@ -3371,7 +3377,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.4</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.8</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2.6</v>
@@ -3404,7 +3410,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.7</v>
@@ -3415,7 +3421,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2.3</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>3</v>
@@ -3437,7 +3443,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.9</v>
@@ -3448,7 +3454,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2.9</v>
@@ -3459,7 +3465,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.5</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.8</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.6</v>
@@ -3509,29 +3515,29 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I1:J7 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>0</v>
@@ -3539,7 +3545,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>18857</v>
@@ -3562,7 +3568,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38438</v>
@@ -3631,7 +3637,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9443</v>
@@ -3654,7 +3660,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18138</v>
@@ -3677,7 +3683,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>244410</v>
@@ -3700,7 +3706,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>481451</v>
@@ -3723,7 +3729,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>129672</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>178588</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39651</v>
@@ -3792,7 +3798,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>57849</v>
@@ -3861,7 +3867,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>127227</v>
@@ -3884,7 +3890,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247841</v>
@@ -3924,23 +3930,23 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="I1:J7 C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
@@ -3948,7 +3954,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2687</v>
@@ -3965,7 +3971,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2846</v>
@@ -4016,7 +4022,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1678</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1753</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>33124</v>
@@ -4067,7 +4073,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>37195</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>13210</v>
@@ -4101,7 +4107,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14186</v>
@@ -4118,7 +4124,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4228</v>
@@ -4135,7 +4141,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4541</v>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15324</v>
@@ -4203,7 +4209,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>17072</v>
@@ -4237,28 +4243,28 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I1:J7 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -4275,7 +4281,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -4292,7 +4298,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -4309,7 +4315,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -4343,7 +4349,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -4411,25 +4417,25 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I1:J7 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="19" t="n">
         <v>464</v>
@@ -4440,7 +4446,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="19" t="n">
         <v>5328</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="19" t="n">
         <v>11923</v>
@@ -4462,7 +4468,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="19" t="n">
         <v>13976</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="19" t="n">
         <v>12238</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="19" t="n">
         <v>11257</v>
@@ -4495,7 +4501,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="19" t="n">
         <v>10751</v>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>9004</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>6299</v>
@@ -4528,7 +4534,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>4063</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="19" t="n">
         <v>2631</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>1252</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="19" t="n">
         <v>537</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19" t="n">
         <v>236</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="16" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="19" t="n">
         <v>114</v>
@@ -4611,26 +4617,26 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -4638,7 +4644,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94266</v>
@@ -4658,7 +4664,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>95520</v>
@@ -4718,7 +4724,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>41188</v>
@@ -4738,7 +4744,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>43100</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1215305</v>
@@ -4778,7 +4784,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1269653</v>
@@ -4798,7 +4804,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>494471</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>496799</v>
@@ -4838,7 +4844,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166515</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>172998</v>
@@ -4918,7 +4924,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>638767</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>685824</v>
@@ -4975,34 +4981,34 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I1:J7 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>22770</v>
@@ -5022,7 +5028,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38555</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5867</v>
@@ -5102,7 +5108,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>9957</v>
@@ -5122,7 +5128,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>400823</v>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>471407</v>
@@ -5162,7 +5168,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>202478</v>
@@ -5182,7 +5188,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>205531</v>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>66991</v>
@@ -5222,7 +5228,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>70444</v>
@@ -5282,7 +5288,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>197350</v>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247050</v>
@@ -5339,10 +5345,10 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:J7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
@@ -5361,31 +5367,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,78 +5476,78 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="I1:J7 B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,7 +5555,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>36</v>
@@ -5617,7 +5623,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>38</v>
@@ -5685,7 +5691,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>37</v>
@@ -5753,7 +5759,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>37</v>
@@ -5821,7 +5827,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>38</v>
@@ -5889,7 +5895,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>38</v>
@@ -5971,10 +5977,10 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="I1:J7 G25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.62"/>
@@ -5991,7 +5997,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -6003,30 +6009,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6096,7 +6102,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6166,7 +6172,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -6236,7 +6242,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -6323,34 +6329,34 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="I1:J7 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6370,7 +6376,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6390,7 +6396,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6410,7 +6416,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6430,7 +6436,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2011</v>
@@ -6450,7 +6456,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2011</v>
@@ -6470,7 +6476,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2011</v>
@@ -6490,7 +6496,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2011</v>
@@ -6510,7 +6516,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2011</v>
@@ -6530,7 +6536,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2011</v>
@@ -6550,7 +6556,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2011</v>
@@ -6570,7 +6576,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2011</v>
@@ -6590,7 +6596,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2011</v>
@@ -6610,7 +6616,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2011</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2011</v>
@@ -6650,7 +6656,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -6670,7 +6676,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -6690,7 +6696,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -6710,7 +6716,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -6730,7 +6736,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -6750,7 +6756,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2016</v>
@@ -6770,7 +6776,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2016</v>
@@ -6790,7 +6796,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2016</v>
@@ -6810,7 +6816,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2016</v>
@@ -6830,7 +6836,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2016</v>
@@ -6850,7 +6856,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2016</v>
@@ -6870,7 +6876,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2016</v>
@@ -6890,7 +6896,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2016</v>
@@ -6910,7 +6916,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2016</v>
@@ -6930,7 +6936,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2016</v>
@@ -6950,7 +6956,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2016</v>
@@ -6970,7 +6976,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2016</v>
@@ -6990,7 +6996,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2016</v>
@@ -7010,7 +7016,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2016</v>
@@ -7030,7 +7036,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2016</v>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2016</v>
@@ -7070,7 +7076,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2016</v>
@@ -7090,7 +7096,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2016</v>
@@ -7110,7 +7116,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2016</v>
@@ -7130,7 +7136,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2016</v>
@@ -7167,10 +7173,10 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="I1:J7 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
@@ -7180,30 +7186,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -7273,7 +7279,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -7308,7 +7314,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -7343,7 +7349,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -7378,7 +7384,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -7413,7 +7419,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -7448,7 +7454,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -7500,10 +7506,10 @@
   <dimension ref="A1:J294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="1" sqref="I1:J7 A300"/>
+      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.33"/>
@@ -7513,7 +7519,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -7522,28 +7528,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>13032</v>
@@ -7603,7 +7609,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>4</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>315</v>
@@ -7663,7 +7669,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>584</v>
@@ -7693,7 +7699,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
@@ -7723,7 +7729,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>11</v>
@@ -7753,7 +7759,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>150</v>
@@ -7783,7 +7789,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>11</v>
@@ -7813,7 +7819,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>6</v>
@@ -7843,7 +7849,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>7</v>
@@ -7873,7 +7879,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>6244</v>
@@ -7903,7 +7909,7 @@
     </row>
     <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>0</v>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>644</v>
@@ -7963,7 +7969,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>18</v>
@@ -7993,7 +7999,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>36</v>
@@ -8023,7 +8029,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>4899090</v>
@@ -8053,7 +8059,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>0</v>
@@ -8083,7 +8089,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>0</v>
@@ -8113,7 +8119,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0</v>
@@ -8143,7 +8149,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>5172</v>
@@ -8173,7 +8179,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>160</v>
@@ -8203,7 +8209,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>64</v>
@@ -8233,7 +8239,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>517</v>
@@ -8263,7 +8269,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24217</v>
@@ -8293,7 +8299,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>78</v>
@@ -8323,7 +8329,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>472</v>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>2026</v>
@@ -8383,7 +8389,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>25</v>
@@ -8413,7 +8419,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>19</v>
@@ -8443,7 +8449,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>136</v>
@@ -8473,7 +8479,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>674</v>
@@ -8503,7 +8509,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>526</v>
@@ -8533,7 +8539,7 @@
     </row>
     <row r="35" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>0</v>
@@ -8563,7 +8569,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>7095</v>
@@ -8593,7 +8599,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>233</v>
@@ -8623,7 +8629,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>12314</v>
@@ -8653,7 +8659,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>0</v>
@@ -8683,7 +8689,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>492</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>1059</v>
@@ -8743,7 +8749,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>20</v>
@@ -8773,7 +8779,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>209</v>
@@ -8803,7 +8809,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
@@ -8833,7 +8839,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>12439</v>
@@ -8863,7 +8869,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>99</v>
@@ -8893,7 +8899,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>13290</v>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>23</v>
@@ -8953,7 +8959,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>38</v>
@@ -8983,7 +8989,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>0</v>
@@ -9013,7 +9019,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>3</v>
@@ -9043,7 +9049,7 @@
     </row>
     <row r="52" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>26</v>
@@ -9073,7 +9079,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>3</v>
@@ -9103,7 +9109,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>15</v>
@@ -9133,7 +9139,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>13058</v>
@@ -9163,7 +9169,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>0</v>
@@ -9193,7 +9199,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>234508</v>
@@ -9223,7 +9229,7 @@
     </row>
     <row r="58" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>5</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>6742</v>
@@ -9283,7 +9289,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>0</v>
@@ -9313,7 +9319,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>551</v>
@@ -9343,7 +9349,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>246</v>
@@ -9373,7 +9379,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" s="4" t="n">
         <v>2208</v>
@@ -9403,7 +9409,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="n">
         <v>174</v>
@@ -9433,7 +9439,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" s="4" t="n">
         <v>109</v>
@@ -9463,7 +9469,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66" s="4" t="n">
         <v>15638</v>
@@ -9493,7 +9499,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4" t="n">
         <v>292</v>
@@ -9523,7 +9529,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68" s="4" t="n">
         <v>41</v>
@@ -9553,7 +9559,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" s="4" t="n">
         <v>6239</v>
@@ -9583,7 +9589,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="n">
         <v>3310</v>
@@ -9613,7 +9619,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="n">
         <v>2630</v>
@@ -9643,7 +9649,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72" s="4" t="n">
         <v>28</v>
@@ -9673,7 +9679,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>6</v>
@@ -9703,7 +9709,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>51</v>
@@ -9733,7 +9739,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="n">
         <v>1699</v>
@@ -9763,7 +9769,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="n">
         <v>1356</v>
@@ -9793,7 +9799,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="n">
         <v>19724</v>
@@ -9823,7 +9829,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="n">
         <v>1842</v>
@@ -9853,7 +9859,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="n">
         <v>226564</v>
@@ -9883,7 +9889,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="4" t="n">
         <v>9</v>
@@ -9913,7 +9919,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="n">
         <v>287</v>
@@ -9943,7 +9949,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="n">
         <v>759</v>
@@ -9973,7 +9979,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1260</v>
@@ -10003,7 +10009,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="4" t="n">
         <v>24</v>
@@ -10033,7 +10039,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85" s="4" t="n">
         <v>3</v>
@@ -10063,7 +10069,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="4" t="n">
         <v>33879</v>
@@ -10093,7 +10099,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="4" t="n">
         <v>2267</v>
@@ -10123,7 +10129,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="4" t="n">
         <v>11540</v>
@@ -10153,7 +10159,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" s="4" t="n">
         <v>3</v>
@@ -10183,7 +10189,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B90" s="4" t="n">
         <v>157</v>
@@ -10213,7 +10219,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B91" s="4" t="n">
         <v>21</v>
@@ -10243,7 +10249,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B92" s="4" t="n">
         <v>47</v>
@@ -10273,7 +10279,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B93" s="4" t="n">
         <v>1632</v>
@@ -10303,7 +10309,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4" t="n">
         <v>186</v>
@@ -10333,7 +10339,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95" s="4" t="n">
         <v>29541</v>
@@ -10363,7 +10369,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96" s="4" t="n">
         <v>2432</v>
@@ -10393,7 +10399,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B97" s="4" t="n">
         <v>95</v>
@@ -10423,7 +10429,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98" s="4" t="n">
         <v>29481</v>
@@ -10453,7 +10459,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="4" t="n">
         <v>10</v>
@@ -10483,7 +10489,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B100" s="4" t="n">
         <v>54</v>
@@ -10513,7 +10519,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
@@ -10543,7 +10549,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B102" s="4" t="n">
         <v>31</v>
@@ -10573,7 +10579,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" s="4" t="n">
         <v>142</v>
@@ -10603,7 +10609,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104" s="4" t="n">
         <v>153</v>
@@ -10633,7 +10639,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>238</v>
@@ -10663,7 +10669,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>14</v>
@@ -10693,7 +10699,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>164</v>
@@ -10723,7 +10729,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B108" s="4" t="n">
         <v>38</v>
@@ -10753,7 +10759,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>0</v>
@@ -10783,7 +10789,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" s="4" t="n">
         <v>99</v>
@@ -10813,7 +10819,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" s="4" t="n">
         <v>42347</v>
@@ -10843,7 +10849,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B112" s="4" t="n">
         <v>6420</v>
@@ -10873,7 +10879,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B113" s="4" t="n">
         <v>127</v>
@@ -10903,7 +10909,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B114" s="4" t="n">
         <v>4386</v>
@@ -10933,7 +10939,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115" s="4" t="n">
         <v>143459</v>
@@ -10963,7 +10969,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B116" s="4" t="n">
         <v>31774</v>
@@ -10993,7 +10999,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B117" s="4" t="n">
         <v>23048</v>
@@ -11023,7 +11029,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" s="4" t="n">
         <v>40271</v>
@@ -11053,7 +11059,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B119" s="4" t="n">
         <v>24038</v>
@@ -11083,7 +11089,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B120" s="4" t="n">
         <v>168</v>
@@ -11113,7 +11119,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B121" s="4" t="n">
         <v>3594</v>
@@ -11143,7 +11149,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="4" t="n">
         <v>49476</v>
@@ -11173,7 +11179,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B123" s="4" t="n">
         <v>299</v>
@@ -11203,7 +11209,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B124" s="4" t="n">
         <v>14008</v>
@@ -11233,7 +11239,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125" s="4" t="n">
         <v>0</v>
@@ -11263,7 +11269,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B126" s="4" t="n">
         <v>311</v>
@@ -11293,7 +11299,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B127" s="4" t="n">
         <v>3785</v>
@@ -11323,7 +11329,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B128" s="4" t="n">
         <v>491</v>
@@ -11353,7 +11359,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129" s="4" t="n">
         <v>3197</v>
@@ -11383,7 +11389,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B130" s="4" t="n">
         <v>110</v>
@@ -11413,7 +11419,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B131" s="4" t="n">
         <v>47</v>
@@ -11443,7 +11449,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B132" s="4" t="n">
         <v>51816</v>
@@ -11473,7 +11479,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B133" s="4" t="n">
         <v>217</v>
@@ -11503,7 +11509,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B134" s="4" t="n">
         <v>2603</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B135" s="4" t="n">
         <v>105</v>
@@ -11563,7 +11569,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" s="4" t="n">
         <v>5227</v>
@@ -11593,7 +11599,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137" s="4" t="n">
         <v>1144</v>
@@ -11623,7 +11629,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B138" s="4" t="n">
         <v>57381</v>
@@ -11653,7 +11659,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B139" s="4" t="n">
         <v>42</v>
@@ -11683,7 +11689,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" s="4" t="n">
         <v>600</v>
@@ -11713,7 +11719,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" s="4" t="n">
         <v>702</v>
@@ -11743,7 +11749,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142" s="4" t="n">
         <v>5</v>
@@ -11773,7 +11779,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143" s="4" t="n">
         <v>1022</v>
@@ -11803,7 +11809,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B144" s="4" t="n">
         <v>69</v>
@@ -11833,7 +11839,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B145" s="4" t="n">
         <v>1212</v>
@@ -11863,7 +11869,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" s="4" t="n">
         <v>62</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="147" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B147" s="4" t="n">
         <v>3</v>
@@ -11923,7 +11929,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B148" s="4" t="n">
         <v>202</v>
@@ -11953,7 +11959,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B149" s="4" t="n">
         <v>31655</v>
@@ -11983,7 +11989,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B150" s="4" t="n">
         <v>61</v>
@@ -12013,7 +12019,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B151" s="4" t="n">
         <v>18</v>
@@ -12043,7 +12049,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>14481</v>
@@ -12073,7 +12079,7 @@
     </row>
     <row r="153" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B153" s="4" t="n">
         <v>42</v>
@@ -12103,7 +12109,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" s="4" t="n">
         <v>6</v>
@@ -12133,7 +12139,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B155" s="4" t="n">
         <v>3</v>
@@ -12163,7 +12169,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B156" s="4" t="n">
         <v>27</v>
@@ -12193,7 +12199,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B157" s="4" t="n">
         <v>5731</v>
@@ -12223,7 +12229,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B158" s="4" t="n">
         <v>0</v>
@@ -12253,7 +12259,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159" s="4" t="n">
         <v>0</v>
@@ -12283,7 +12289,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B160" s="4" t="n">
         <v>1703</v>
@@ -12313,7 +12319,7 @@
     </row>
     <row r="161" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B161" s="4" t="n">
         <v>9</v>
@@ -12343,7 +12349,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B162" s="4" t="n">
         <v>7</v>
@@ -12373,7 +12379,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B163" s="4" t="n">
         <v>476</v>
@@ -12403,7 +12409,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B164" s="4" t="n">
         <v>250</v>
@@ -12433,7 +12439,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>22</v>
@@ -12463,7 +12469,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B166" s="4" t="n">
         <v>1561</v>
@@ -12493,7 +12499,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B167" s="4" t="n">
         <v>398</v>
@@ -12523,7 +12529,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B168" s="4" t="n">
         <v>0</v>
@@ -12553,7 +12559,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B169" s="4" t="n">
         <v>729</v>
@@ -12583,7 +12589,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B170" s="4" t="n">
         <v>199</v>
@@ -12613,7 +12619,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>7128</v>
@@ -12643,7 +12649,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>259</v>
@@ -12673,7 +12679,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>73</v>
@@ -12703,7 +12709,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B174" s="4" t="n">
         <v>32117</v>
@@ -12733,7 +12739,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>16900</v>
@@ -12763,7 +12769,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>495</v>
@@ -12793,7 +12799,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>117136</v>
@@ -12823,7 +12829,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>404</v>
@@ -12853,7 +12859,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>13</v>
@@ -12883,7 +12889,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B180" s="4" t="n">
         <v>2712</v>
@@ -12913,7 +12919,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B181" s="4" t="n">
         <v>327</v>
@@ -12943,7 +12949,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>110</v>
@@ -12973,7 +12979,7 @@
     </row>
     <row r="183" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>134</v>
@@ -13003,7 +13009,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B184" s="4" t="n">
         <v>19</v>
@@ -13033,7 +13039,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B185" s="4" t="n">
         <v>3</v>
@@ -13063,7 +13069,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>0</v>
@@ -13093,7 +13099,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B187" s="4" t="n">
         <v>15</v>
@@ -13123,7 +13129,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B188" s="4" t="n">
         <v>5</v>
@@ -13153,7 +13159,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B189" s="4" t="n">
         <v>5972</v>
@@ -13183,7 +13189,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B190" s="4" t="n">
         <v>6</v>
@@ -13213,7 +13219,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B191" s="4" t="n">
         <v>1237</v>
@@ -13243,7 +13249,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" s="4" t="n">
         <v>508571</v>
@@ -13273,7 +13279,7 @@
     </row>
     <row r="193" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B193" s="4" t="n">
         <v>14</v>
@@ -13303,7 +13309,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B194" s="4" t="n">
         <v>375</v>
@@ -13333,7 +13339,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B195" s="4" t="n">
         <v>24524</v>
@@ -13363,7 +13369,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B196" s="4" t="n">
         <v>4</v>
@@ -13393,7 +13399,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B197" s="4" t="n">
         <v>102</v>
@@ -13423,7 +13429,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B198" s="4" t="n">
         <v>5466</v>
@@ -13453,7 +13459,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B199" s="4" t="n">
         <v>223</v>
@@ -13483,7 +13489,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B200" s="4" t="n">
         <v>5714</v>
@@ -13513,7 +13519,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B201" s="4" t="n">
         <v>86749</v>
@@ -13543,7 +13549,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B202" s="4" t="n">
         <v>4</v>
@@ -13573,7 +13579,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B203" s="4" t="n">
         <v>13451</v>
@@ -13603,7 +13609,7 @@
     </row>
     <row r="204" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B204" s="4" t="n">
         <v>0</v>
@@ -13633,7 +13639,7 @@
     </row>
     <row r="205" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B205" s="4" t="n">
         <v>3</v>
@@ -13663,7 +13669,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B206" s="4" t="n">
         <v>8325</v>
@@ -13693,7 +13699,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B207" s="4" t="n">
         <v>49</v>
@@ -13723,7 +13729,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B208" s="4" t="n">
         <v>356</v>
@@ -13753,7 +13759,7 @@
     </row>
     <row r="209" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B209" s="4" t="n">
         <v>0</v>
@@ -13783,7 +13789,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B210" s="4" t="n">
         <v>60</v>
@@ -13813,7 +13819,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B211" s="4" t="n">
         <v>3473</v>
@@ -13843,7 +13849,7 @@
     </row>
     <row r="212" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B212" s="4" t="n">
         <v>0</v>
@@ -13873,7 +13879,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B213" s="4" t="n">
         <v>7586</v>
@@ -13903,7 +13909,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B214" s="4" t="n">
         <v>139</v>
@@ -13933,7 +13939,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B215" s="4" t="n">
         <v>9025</v>
@@ -13963,7 +13969,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B216" s="4" t="n">
         <v>111</v>
@@ -13993,7 +13999,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B217" s="4" t="n">
         <v>3</v>
@@ -14023,7 +14029,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B218" s="4" t="n">
         <v>3</v>
@@ -14053,7 +14059,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B219" s="4" t="n">
         <v>3566</v>
@@ -14083,7 +14089,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B220" s="4" t="n">
         <v>28579</v>
@@ -14113,7 +14119,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B221" s="4" t="n">
         <v>167</v>
@@ -14143,7 +14149,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B222" s="4" t="n">
         <v>7171</v>
@@ -14173,7 +14179,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B223" s="4" t="n">
         <v>245</v>
@@ -14203,7 +14209,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B224" s="4" t="n">
         <v>1601</v>
@@ -14233,7 +14239,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B225" s="4" t="n">
         <v>12730</v>
@@ -14263,7 +14269,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B226" s="4" t="n">
         <v>3</v>
@@ -14293,7 +14299,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B227" s="4" t="n">
         <v>2252</v>
@@ -14323,7 +14329,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B228" s="4" t="n">
         <v>1773</v>
@@ -14353,7 +14359,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B229" s="4" t="n">
         <v>528</v>
@@ -14383,7 +14389,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B230" s="4" t="n">
         <v>824</v>
@@ -14413,7 +14419,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B231" s="4" t="n">
         <v>43058</v>
@@ -14443,7 +14449,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B232" s="4" t="n">
         <v>0</v>
@@ -14473,7 +14479,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B233" s="4" t="n">
         <v>88</v>
@@ -14503,7 +14509,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B234" s="4" t="n">
         <v>7957</v>
@@ -14533,7 +14539,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B235" s="4" t="n">
         <v>977</v>
@@ -14563,7 +14569,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B236" s="4" t="n">
         <v>27</v>
@@ -14593,7 +14599,7 @@
     </row>
     <row r="237" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B237" s="4" t="n">
         <v>51</v>
@@ -14623,7 +14629,7 @@
     </row>
     <row r="238" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B238" s="4" t="n">
         <v>11</v>
@@ -14653,7 +14659,7 @@
     </row>
     <row r="239" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B239" s="4" t="n">
         <v>70</v>
@@ -14683,7 +14689,7 @@
     </row>
     <row r="240" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B240" s="4" t="n">
         <v>0</v>
@@ -14713,7 +14719,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B241" s="4" t="n">
         <v>120</v>
@@ -14743,7 +14749,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B242" s="4" t="n">
         <v>0</v>
@@ -14773,7 +14779,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B243" s="4" t="n">
         <v>6387</v>
@@ -14803,7 +14809,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B244" s="4" t="n">
         <v>0</v>
@@ -14833,7 +14839,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B245" s="4" t="n">
         <v>28732</v>
@@ -14863,7 +14869,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B246" s="4" t="n">
         <v>0</v>
@@ -14893,7 +14899,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B247" s="4" t="n">
         <v>8</v>
@@ -14923,7 +14929,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B248" s="4" t="n">
         <v>15</v>
@@ -14953,7 +14959,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B249" s="4" t="n">
         <v>12</v>
@@ -14983,7 +14989,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B250" s="4" t="n">
         <v>0</v>
@@ -15013,7 +15019,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B251" s="4" t="n">
         <v>0</v>
@@ -15043,7 +15049,7 @@
     </row>
     <row r="252" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B252" s="4" t="n">
         <v>25</v>
@@ -15073,7 +15079,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B253" s="4" t="n">
         <v>0</v>
@@ -15103,7 +15109,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B254" s="4" t="n">
         <v>5093</v>
@@ -15133,7 +15139,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B255" s="4" t="n">
         <v>35</v>
@@ -15163,7 +15169,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B256" s="4" t="n">
         <v>76</v>
@@ -15193,7 +15199,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B257" s="4" t="n">
         <v>3424</v>
@@ -15223,7 +15229,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B258" s="4" t="n">
         <v>3855</v>
@@ -15253,7 +15259,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B259" s="4" t="n">
         <v>9291</v>
@@ -15283,7 +15289,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B260" s="4" t="n">
         <v>13493</v>
@@ -15313,7 +15319,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B261" s="4" t="n">
         <v>49</v>
@@ -15343,7 +15349,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B262" s="4" t="n">
         <v>797</v>
@@ -15373,7 +15379,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B263" s="4" t="n">
         <v>26719</v>
@@ -15403,7 +15409,7 @@
     </row>
     <row r="264" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B264" s="4" t="n">
         <v>16501</v>
@@ -15433,7 +15439,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B265" s="4" t="n">
         <v>2119</v>
@@ -15463,7 +15469,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B266" s="4" t="n">
         <v>83</v>
@@ -15493,7 +15499,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B267" s="4" t="n">
         <v>271</v>
@@ -15523,7 +15529,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B268" s="4" t="n">
         <v>5843</v>
@@ -15553,7 +15559,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B269" s="4" t="n">
         <v>352</v>
@@ -15583,7 +15589,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B270" s="4" t="n">
         <v>220</v>
@@ -15613,7 +15619,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B271" s="4" t="n">
         <v>12808</v>
@@ -15643,7 +15649,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B272" s="4" t="n">
         <v>33</v>
@@ -15673,7 +15679,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B273" s="4" t="n">
         <v>0</v>
@@ -15703,7 +15709,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B274" s="4" t="n">
         <v>21</v>
@@ -15733,7 +15739,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B275" s="4" t="n">
         <v>791</v>
@@ -15763,7 +15769,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B276" s="4" t="n">
         <v>4830</v>
@@ -15793,7 +15799,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B277" s="4" t="n">
         <v>2595</v>
@@ -15823,7 +15829,7 @@
     </row>
     <row r="278" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B278" s="4" t="n">
         <v>1875</v>
@@ -15853,7 +15859,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B279" s="4" t="n">
         <v>30081</v>
@@ -15883,7 +15889,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B280" s="4" t="n">
         <v>6213</v>
@@ -15913,7 +15919,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B281" s="4" t="n">
         <v>500</v>
@@ -15943,7 +15949,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B282" s="4" t="n">
         <v>431</v>
@@ -15973,7 +15979,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B283" s="4" t="n">
         <v>1855</v>
@@ -16003,7 +16009,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B284" s="4" t="n">
         <v>84130</v>
@@ -16033,7 +16039,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B285" s="4" t="n">
         <v>10</v>
@@ -16063,7 +16069,7 @@
     </row>
     <row r="286" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B286" s="4" t="n">
         <v>3</v>
@@ -16093,7 +16099,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B287" s="4" t="n">
         <v>7256</v>
@@ -16123,7 +16129,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B288" s="4" t="n">
         <v>7</v>
@@ -16153,7 +16159,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B289" s="4" t="n">
         <v>0</v>
@@ -16183,7 +16189,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B290" s="4" t="n">
         <v>5</v>
@@ -16213,7 +16219,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B291" s="4" t="n">
         <v>230</v>
@@ -16243,7 +16249,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B292" s="4" t="n">
         <v>1106</v>
@@ -16273,7 +16279,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B293" s="4" t="n">
         <v>6495</v>
@@ -16332,26 +16338,26 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="I1:J7 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16424,10 +16430,10 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="I1:J7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16437,30 +16443,30 @@
         <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>664</v>
@@ -16492,7 +16498,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>31125</v>
@@ -16524,7 +16530,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>568289</v>
@@ -16556,7 +16562,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>243659</v>
@@ -16588,7 +16594,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>415486</v>
@@ -16620,7 +16626,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>526570</v>
@@ -16652,7 +16658,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>501698</v>
@@ -16684,7 +16690,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>448014</v>
@@ -16716,7 +16722,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>450649</v>
@@ -16748,7 +16754,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>489370</v>
@@ -16780,7 +16786,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>498807</v>
@@ -16812,7 +16818,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>341092</v>
@@ -16844,7 +16850,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>290547</v>
@@ -16876,7 +16882,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>209058</v>
@@ -16908,7 +16914,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>321562</v>
@@ -16940,7 +16946,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>215643</v>

--- a/data/snapshot_clean.xlsx
+++ b/data/snapshot_clean.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="State and Territory of Usual Residence " sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="400">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">Queensland</t>
@@ -1479,25 +1476,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,9 +1565,6 @@
       <c r="C7" s="0" t="n">
         <v>3220217</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1629,7 +1615,7 @@
         <v>1966</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1674324</v>
@@ -1640,7 +1626,7 @@
         <v>1991</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2887505</v>
@@ -1651,7 +1637,7 @@
         <v>2006</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3904531</v>
@@ -1662,7 +1648,7 @@
         <v>2011</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4332738</v>
@@ -1673,7 +1659,7 @@
         <v>2016</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4703193</v>
@@ -1684,7 +1670,7 @@
         <v>1966</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1094984</v>
@@ -1695,7 +1681,7 @@
         <v>1991</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1408623</v>
@@ -1706,7 +1692,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1514340</v>
@@ -1717,7 +1703,7 @@
         <v>2011</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1596570</v>
@@ -1728,7 +1714,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1676653</v>
@@ -1739,7 +1725,7 @@
         <v>1966</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>848100</v>
@@ -1750,7 +1736,7 @@
         <v>1991</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1576334</v>
@@ -1761,7 +1747,7 @@
         <v>2006</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1959087</v>
@@ -1772,7 +1758,7 @@
         <v>2011</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2239171</v>
@@ -1783,7 +1769,7 @@
         <v>2016</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2474410</v>
@@ -1794,7 +1780,7 @@
         <v>1966</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>371436</v>
@@ -1805,7 +1791,7 @@
         <v>1991</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>456219</v>
@@ -1816,7 +1802,7 @@
         <v>2006</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>476481</v>
@@ -1827,7 +1813,7 @@
         <v>2011</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>495352</v>
@@ -1838,7 +1824,7 @@
         <v>2016</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>509965</v>
@@ -1849,7 +1835,7 @@
         <v>1966</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>56504</v>
@@ -1860,7 +1846,7 @@
         <v>1991</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>159300</v>
@@ -1871,7 +1857,7 @@
         <v>2006</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>192899</v>
@@ -1882,7 +1868,7 @@
         <v>2011</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>211944</v>
@@ -1893,7 +1879,7 @@
         <v>2016</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>228833</v>
@@ -1904,7 +1890,7 @@
         <v>1966</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>96032</v>
@@ -1915,7 +1901,7 @@
         <v>1991</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>280868</v>
@@ -1926,7 +1912,7 @@
         <v>2006</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>324034</v>
@@ -1937,7 +1923,7 @@
         <v>2011</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>357218</v>
@@ -1948,7 +1934,7 @@
         <v>2016</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>397397</v>
@@ -1959,7 +1945,7 @@
         <v>1966</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>11599497</v>
@@ -1970,7 +1956,7 @@
         <v>1991</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>16771700</v>
@@ -1981,7 +1967,7 @@
         <v>2006</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>19855288</v>
@@ -1992,7 +1978,7 @@
         <v>2011</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>21507717</v>
@@ -2003,7 +1989,7 @@
         <v>2016</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>23401892</v>
@@ -2031,20 +2017,20 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,7 +2069,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1791739</v>
@@ -2100,7 +2086,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>673541</v>
@@ -2117,7 +2103,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>938092</v>
@@ -2134,7 +2120,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>209614</v>
@@ -2151,7 +2137,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>79246</v>
@@ -2168,7 +2154,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>150693</v>
@@ -2185,7 +2171,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8861623</v>
@@ -2222,29 +2208,29 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>0</v>
@@ -2304,7 +2290,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>728631</v>
@@ -2330,7 +2316,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>370091</v>
@@ -2356,7 +2342,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>396766</v>
@@ -2382,7 +2368,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>118725</v>
@@ -2408,7 +2394,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>32130</v>
@@ -2434,7 +2420,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>68686</v>
@@ -2512,7 +2498,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1159701</v>
@@ -2538,7 +2524,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>430095</v>
@@ -2564,7 +2550,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>616131</v>
@@ -2590,7 +2576,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>130836</v>
@@ -2616,7 +2602,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>44026</v>
@@ -2642,7 +2628,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>98633</v>
@@ -2688,20 +2674,20 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -2711,7 +2697,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>6968</v>
@@ -2730,7 +2716,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>35957</v>
@@ -2749,7 +2735,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>61008</v>
@@ -2768,7 +2754,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>64271</v>
@@ -2787,7 +2773,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>67871</v>
@@ -2806,7 +2792,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>73725</v>
@@ -2825,7 +2811,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>79962</v>
@@ -2844,7 +2830,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>84423</v>
@@ -2863,7 +2849,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>81478</v>
@@ -2882,7 +2868,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>79520</v>
@@ -2901,7 +2887,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>63419</v>
@@ -2920,7 +2906,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>50113</v>
@@ -2939,7 +2925,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>40556</v>
@@ -2958,7 +2944,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>36467</v>
@@ -2977,7 +2963,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>33345</v>
@@ -2996,7 +2982,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>6848</v>
@@ -3015,7 +3001,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>34052</v>
@@ -3032,7 +3018,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>58315</v>
@@ -3049,7 +3035,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>66403</v>
@@ -3066,7 +3052,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>62759</v>
@@ -3083,7 +3069,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>69417</v>
@@ -3100,7 +3086,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>79040</v>
@@ -3117,7 +3103,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>87678</v>
@@ -3134,7 +3120,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>92202</v>
@@ -3151,7 +3137,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>87450</v>
@@ -3168,7 +3154,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>83587</v>
@@ -3185,7 +3171,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>63521</v>
@@ -3202,7 +3188,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>47823</v>
@@ -3219,7 +3205,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>36343</v>
@@ -3236,7 +3222,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>40531</v>
@@ -3273,7 +3259,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.29"/>
@@ -3292,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -3344,7 +3330,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.8</v>
@@ -3355,7 +3341,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2.6</v>
@@ -3366,7 +3352,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2.6</v>
@@ -3377,7 +3363,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.4</v>
@@ -3388,7 +3374,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.8</v>
@@ -3399,7 +3385,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2.6</v>
@@ -3410,7 +3396,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.7</v>
@@ -3421,7 +3407,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2.3</v>
@@ -3432,7 +3418,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>3</v>
@@ -3443,7 +3429,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.9</v>
@@ -3454,7 +3440,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2.9</v>
@@ -3465,7 +3451,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.5</v>
@@ -3476,7 +3462,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.8</v>
@@ -3487,7 +3473,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.6</v>
@@ -3518,26 +3504,26 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>381</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>0</v>
@@ -3545,7 +3531,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>18857</v>
@@ -3568,7 +3554,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38438</v>
@@ -3637,7 +3623,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>9443</v>
@@ -3660,7 +3646,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18138</v>
@@ -3683,7 +3669,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>244410</v>
@@ -3706,7 +3692,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>481451</v>
@@ -3729,7 +3715,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>129672</v>
@@ -3752,7 +3738,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>178588</v>
@@ -3775,7 +3761,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39651</v>
@@ -3798,7 +3784,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>57849</v>
@@ -3867,7 +3853,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>127227</v>
@@ -3890,7 +3876,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247841</v>
@@ -3933,20 +3919,20 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
@@ -3954,7 +3940,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2687</v>
@@ -3971,7 +3957,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2846</v>
@@ -4022,7 +4008,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1678</v>
@@ -4039,7 +4025,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1753</v>
@@ -4056,7 +4042,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>33124</v>
@@ -4073,7 +4059,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>37195</v>
@@ -4090,7 +4076,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>13210</v>
@@ -4107,7 +4093,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14186</v>
@@ -4124,7 +4110,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4228</v>
@@ -4141,7 +4127,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4541</v>
@@ -4192,7 +4178,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15324</v>
@@ -4209,7 +4195,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>17072</v>
@@ -4246,25 +4232,25 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -4281,7 +4267,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -4298,7 +4284,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -4315,7 +4301,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -4332,7 +4318,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -4349,7 +4335,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -4366,7 +4352,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -4383,7 +4369,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -4420,22 +4406,22 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="19" t="n">
         <v>464</v>
@@ -4446,7 +4432,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="19" t="n">
         <v>5328</v>
@@ -4457,7 +4443,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="19" t="n">
         <v>11923</v>
@@ -4468,7 +4454,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="19" t="n">
         <v>13976</v>
@@ -4479,7 +4465,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19" t="n">
         <v>12238</v>
@@ -4490,7 +4476,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19" t="n">
         <v>11257</v>
@@ -4501,7 +4487,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="19" t="n">
         <v>10751</v>
@@ -4512,7 +4498,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>9004</v>
@@ -4523,7 +4509,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>6299</v>
@@ -4534,7 +4520,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>4063</v>
@@ -4545,7 +4531,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="19" t="n">
         <v>2631</v>
@@ -4556,7 +4542,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>1252</v>
@@ -4567,7 +4553,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="19" t="n">
         <v>537</v>
@@ -4578,7 +4564,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19" t="n">
         <v>236</v>
@@ -4589,7 +4575,7 @@
     </row>
     <row r="16" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="19" t="n">
         <v>114</v>
@@ -4620,23 +4606,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>0</v>
@@ -4644,7 +4630,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94266</v>
@@ -4664,7 +4650,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>95520</v>
@@ -4724,7 +4710,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>41188</v>
@@ -4744,7 +4730,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>43100</v>
@@ -4764,7 +4750,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1215305</v>
@@ -4784,7 +4770,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1269653</v>
@@ -4804,7 +4790,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>494471</v>
@@ -4824,7 +4810,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>496799</v>
@@ -4844,7 +4830,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166515</v>
@@ -4864,7 +4850,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>172998</v>
@@ -4924,7 +4910,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>638767</v>
@@ -4944,7 +4930,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>685824</v>
@@ -4984,31 +4970,31 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>22770</v>
@@ -5028,7 +5014,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>38555</v>
@@ -5088,7 +5074,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5867</v>
@@ -5108,7 +5094,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>9957</v>
@@ -5128,7 +5114,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>400823</v>
@@ -5148,7 +5134,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>471407</v>
@@ -5168,7 +5154,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>202478</v>
@@ -5188,7 +5174,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>205531</v>
@@ -5208,7 +5194,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>66991</v>
@@ -5228,7 +5214,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>70444</v>
@@ -5288,7 +5274,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>197350</v>
@@ -5308,7 +5294,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>247050</v>
@@ -5348,7 +5334,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
@@ -5367,31 +5353,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,78 +5462,78 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="V1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,7 +5541,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>36</v>
@@ -5623,7 +5609,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>38</v>
@@ -5691,7 +5677,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>37</v>
@@ -5759,7 +5745,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>37</v>
@@ -5827,7 +5813,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>38</v>
@@ -5895,7 +5881,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>38</v>
@@ -5976,11 +5962,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.62"/>
@@ -5997,7 +5983,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -6009,30 +5995,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6067,7 +6053,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6102,7 +6088,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6137,7 +6123,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6172,7 +6158,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -6207,7 +6193,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -6242,7 +6228,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -6277,7 +6263,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -6332,31 +6318,31 @@
       <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -6376,7 +6362,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -6396,7 +6382,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -6416,7 +6402,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -6436,7 +6422,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2011</v>
@@ -6456,7 +6442,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2011</v>
@@ -6476,7 +6462,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2011</v>
@@ -6496,7 +6482,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2011</v>
@@ -6516,7 +6502,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2011</v>
@@ -6536,7 +6522,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2011</v>
@@ -6556,7 +6542,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2011</v>
@@ -6576,7 +6562,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2011</v>
@@ -6596,7 +6582,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2011</v>
@@ -6616,7 +6602,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2011</v>
@@ -6636,7 +6622,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2011</v>
@@ -6656,7 +6642,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -6676,7 +6662,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -6696,7 +6682,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -6716,7 +6702,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -6736,7 +6722,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -6756,7 +6742,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2016</v>
@@ -6776,7 +6762,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2016</v>
@@ -6796,7 +6782,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2016</v>
@@ -6816,7 +6802,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2016</v>
@@ -6836,7 +6822,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2016</v>
@@ -6856,7 +6842,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2016</v>
@@ -6876,7 +6862,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2016</v>
@@ -6896,7 +6882,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2016</v>
@@ -6916,7 +6902,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2016</v>
@@ -6936,7 +6922,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2016</v>
@@ -6956,7 +6942,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2016</v>
@@ -6976,7 +6962,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2016</v>
@@ -6996,7 +6982,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2016</v>
@@ -7016,7 +7002,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2016</v>
@@ -7036,7 +7022,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2016</v>
@@ -7056,7 +7042,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2016</v>
@@ -7076,7 +7062,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2016</v>
@@ -7096,7 +7082,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2016</v>
@@ -7116,7 +7102,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2016</v>
@@ -7136,7 +7122,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2016</v>
@@ -7176,7 +7162,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
@@ -7186,30 +7172,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -7244,7 +7230,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -7279,7 +7265,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2011</v>
@@ -7314,7 +7300,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2011</v>
@@ -7349,7 +7335,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2016</v>
@@ -7384,7 +7370,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2016</v>
@@ -7419,7 +7405,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2016</v>
@@ -7454,7 +7440,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2016</v>
@@ -7509,7 +7495,7 @@
       <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.33"/>
@@ -7519,7 +7505,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -7528,28 +7514,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -7579,7 +7565,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>13032</v>
@@ -7609,7 +7595,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>4</v>
@@ -7639,7 +7625,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>315</v>
@@ -7669,7 +7655,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>584</v>
@@ -7699,7 +7685,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
@@ -7729,7 +7715,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>11</v>
@@ -7759,7 +7745,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>150</v>
@@ -7789,7 +7775,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>11</v>
@@ -7819,7 +7805,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>6</v>
@@ -7849,7 +7835,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>7</v>
@@ -7879,7 +7865,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>6244</v>
@@ -7909,7 +7895,7 @@
     </row>
     <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>0</v>
@@ -7939,7 +7925,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>644</v>
@@ -7969,7 +7955,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>18</v>
@@ -7999,7 +7985,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>36</v>
@@ -8029,7 +8015,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>4899090</v>
@@ -8059,7 +8045,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>0</v>
@@ -8089,7 +8075,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>0</v>
@@ -8119,7 +8105,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0</v>
@@ -8149,7 +8135,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>5172</v>
@@ -8179,7 +8165,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>160</v>
@@ -8209,7 +8195,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>64</v>
@@ -8239,7 +8225,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>517</v>
@@ -8269,7 +8255,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24217</v>
@@ -8299,7 +8285,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>78</v>
@@ -8329,7 +8315,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>472</v>
@@ -8359,7 +8345,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>2026</v>
@@ -8389,7 +8375,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>25</v>
@@ -8419,7 +8405,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>19</v>
@@ -8449,7 +8435,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>136</v>
@@ -8479,7 +8465,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>674</v>
@@ -8509,7 +8495,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>526</v>
@@ -8539,7 +8525,7 @@
     </row>
     <row r="35" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>0</v>
@@ -8569,7 +8555,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>7095</v>
@@ -8599,7 +8585,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>233</v>
@@ -8629,7 +8615,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>12314</v>
@@ -8659,7 +8645,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>0</v>
@@ -8689,7 +8675,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>492</v>
@@ -8719,7 +8705,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>1059</v>
@@ -8749,7 +8735,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>20</v>
@@ -8779,7 +8765,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>209</v>
@@ -8809,7 +8795,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
@@ -8839,7 +8825,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>12439</v>
@@ -8869,7 +8855,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>99</v>
@@ -8899,7 +8885,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>13290</v>
@@ -8929,7 +8915,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>23</v>
@@ -8959,7 +8945,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>38</v>
@@ -8989,7 +8975,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>0</v>
@@ -9019,7 +9005,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>3</v>
@@ -9049,7 +9035,7 @@
     </row>
     <row r="52" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>26</v>
@@ -9079,7 +9065,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>3</v>
@@ -9109,7 +9095,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>15</v>
@@ -9139,7 +9125,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>13058</v>
@@ -9169,7 +9155,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>0</v>
@@ -9199,7 +9185,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>234508</v>
@@ -9229,7 +9215,7 @@
     </row>
     <row r="58" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>5</v>
@@ -9259,7 +9245,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>6742</v>
@@ -9289,7 +9275,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>0</v>
@@ -9319,7 +9305,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>551</v>
@@ -9349,7 +9335,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>246</v>
@@ -9379,7 +9365,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="4" t="n">
         <v>2208</v>
@@ -9409,7 +9395,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="4" t="n">
         <v>174</v>
@@ -9439,7 +9425,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="4" t="n">
         <v>109</v>
@@ -9469,7 +9455,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="n">
         <v>15638</v>
@@ -9499,7 +9485,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4" t="n">
         <v>292</v>
@@ -9529,7 +9515,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="4" t="n">
         <v>41</v>
@@ -9559,7 +9545,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="4" t="n">
         <v>6239</v>
@@ -9589,7 +9575,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="n">
         <v>3310</v>
@@ -9619,7 +9605,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="4" t="n">
         <v>2630</v>
@@ -9649,7 +9635,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="4" t="n">
         <v>28</v>
@@ -9679,7 +9665,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>6</v>
@@ -9709,7 +9695,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>51</v>
@@ -9739,7 +9725,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="4" t="n">
         <v>1699</v>
@@ -9769,7 +9755,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="n">
         <v>1356</v>
@@ -9799,7 +9785,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="4" t="n">
         <v>19724</v>
@@ -9829,7 +9815,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="4" t="n">
         <v>1842</v>
@@ -9859,7 +9845,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="4" t="n">
         <v>226564</v>
@@ -9889,7 +9875,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="n">
         <v>9</v>
@@ -9919,7 +9905,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="4" t="n">
         <v>287</v>
@@ -9949,7 +9935,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="4" t="n">
         <v>759</v>
@@ -9979,7 +9965,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1260</v>
@@ -10009,7 +9995,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="4" t="n">
         <v>24</v>
@@ -10039,7 +10025,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="4" t="n">
         <v>3</v>
@@ -10069,7 +10055,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="4" t="n">
         <v>33879</v>
@@ -10099,7 +10085,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="n">
         <v>2267</v>
@@ -10129,7 +10115,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="4" t="n">
         <v>11540</v>
@@ -10159,7 +10145,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="n">
         <v>3</v>
@@ -10189,7 +10175,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="4" t="n">
         <v>157</v>
@@ -10219,7 +10205,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="4" t="n">
         <v>21</v>
@@ -10249,7 +10235,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="4" t="n">
         <v>47</v>
@@ -10279,7 +10265,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="n">
         <v>1632</v>
@@ -10309,7 +10295,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="4" t="n">
         <v>186</v>
@@ -10339,7 +10325,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="4" t="n">
         <v>29541</v>
@@ -10369,7 +10355,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="4" t="n">
         <v>2432</v>
@@ -10399,7 +10385,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" s="4" t="n">
         <v>95</v>
@@ -10429,7 +10415,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="4" t="n">
         <v>29481</v>
@@ -10459,7 +10445,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="4" t="n">
         <v>10</v>
@@ -10489,7 +10475,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="4" t="n">
         <v>54</v>
@@ -10519,7 +10505,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
@@ -10549,7 +10535,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" s="4" t="n">
         <v>31</v>
@@ -10579,7 +10565,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" s="4" t="n">
         <v>142</v>
@@ -10609,7 +10595,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="4" t="n">
         <v>153</v>
@@ -10639,7 +10625,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>238</v>
@@ -10669,7 +10655,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="4" t="n">
         <v>14</v>
@@ -10699,7 +10685,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="4" t="n">
         <v>164</v>
@@ -10729,7 +10715,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="4" t="n">
         <v>38</v>
@@ -10759,7 +10745,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>0</v>
@@ -10789,7 +10775,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="4" t="n">
         <v>99</v>
@@ -10819,7 +10805,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111" s="4" t="n">
         <v>42347</v>
@@ -10849,7 +10835,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B112" s="4" t="n">
         <v>6420</v>
@@ -10879,7 +10865,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="4" t="n">
         <v>127</v>
@@ -10909,7 +10895,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="4" t="n">
         <v>4386</v>
@@ -10939,7 +10925,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" s="4" t="n">
         <v>143459</v>
@@ -10969,7 +10955,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B116" s="4" t="n">
         <v>31774</v>
@@ -10999,7 +10985,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="4" t="n">
         <v>23048</v>
@@ -11029,7 +11015,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="4" t="n">
         <v>40271</v>
@@ -11059,7 +11045,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" s="4" t="n">
         <v>24038</v>
@@ -11089,7 +11075,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" s="4" t="n">
         <v>168</v>
@@ -11119,7 +11105,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" s="4" t="n">
         <v>3594</v>
@@ -11149,7 +11135,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B122" s="4" t="n">
         <v>49476</v>
@@ -11179,7 +11165,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" s="4" t="n">
         <v>299</v>
@@ -11209,7 +11195,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" s="4" t="n">
         <v>14008</v>
@@ -11239,7 +11225,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B125" s="4" t="n">
         <v>0</v>
@@ -11269,7 +11255,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" s="4" t="n">
         <v>311</v>
@@ -11299,7 +11285,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="4" t="n">
         <v>3785</v>
@@ -11329,7 +11315,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" s="4" t="n">
         <v>491</v>
@@ -11359,7 +11345,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B129" s="4" t="n">
         <v>3197</v>
@@ -11389,7 +11375,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B130" s="4" t="n">
         <v>110</v>
@@ -11419,7 +11405,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B131" s="4" t="n">
         <v>47</v>
@@ -11449,7 +11435,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B132" s="4" t="n">
         <v>51816</v>
@@ -11479,7 +11465,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" s="4" t="n">
         <v>217</v>
@@ -11509,7 +11495,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B134" s="4" t="n">
         <v>2603</v>
@@ -11539,7 +11525,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" s="4" t="n">
         <v>105</v>
@@ -11569,7 +11555,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" s="4" t="n">
         <v>5227</v>
@@ -11599,7 +11585,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" s="4" t="n">
         <v>1144</v>
@@ -11629,7 +11615,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B138" s="4" t="n">
         <v>57381</v>
@@ -11659,7 +11645,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B139" s="4" t="n">
         <v>42</v>
@@ -11689,7 +11675,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" s="4" t="n">
         <v>600</v>
@@ -11719,7 +11705,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B141" s="4" t="n">
         <v>702</v>
@@ -11749,7 +11735,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" s="4" t="n">
         <v>5</v>
@@ -11779,7 +11765,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B143" s="4" t="n">
         <v>1022</v>
@@ -11809,7 +11795,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B144" s="4" t="n">
         <v>69</v>
@@ -11839,7 +11825,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B145" s="4" t="n">
         <v>1212</v>
@@ -11869,7 +11855,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" s="4" t="n">
         <v>62</v>
@@ -11899,7 +11885,7 @@
     </row>
     <row r="147" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" s="4" t="n">
         <v>3</v>
@@ -11929,7 +11915,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148" s="4" t="n">
         <v>202</v>
@@ -11959,7 +11945,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" s="4" t="n">
         <v>31655</v>
@@ -11989,7 +11975,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B150" s="4" t="n">
         <v>61</v>
@@ -12019,7 +12005,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151" s="4" t="n">
         <v>18</v>
@@ -12049,7 +12035,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B152" s="4" t="n">
         <v>14481</v>
@@ -12079,7 +12065,7 @@
     </row>
     <row r="153" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" s="4" t="n">
         <v>42</v>
@@ -12109,7 +12095,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B154" s="4" t="n">
         <v>6</v>
@@ -12139,7 +12125,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B155" s="4" t="n">
         <v>3</v>
@@ -12169,7 +12155,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="4" t="n">
         <v>27</v>
@@ -12199,7 +12185,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="4" t="n">
         <v>5731</v>
@@ -12229,7 +12215,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B158" s="4" t="n">
         <v>0</v>
@@ -12259,7 +12245,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B159" s="4" t="n">
         <v>0</v>
@@ -12289,7 +12275,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B160" s="4" t="n">
         <v>1703</v>
@@ -12319,7 +12305,7 @@
     </row>
     <row r="161" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B161" s="4" t="n">
         <v>9</v>
@@ -12349,7 +12335,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B162" s="4" t="n">
         <v>7</v>
@@ -12379,7 +12365,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B163" s="4" t="n">
         <v>476</v>
@@ -12409,7 +12395,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B164" s="4" t="n">
         <v>250</v>
@@ -12439,7 +12425,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>22</v>
@@ -12469,7 +12455,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B166" s="4" t="n">
         <v>1561</v>
@@ -12499,7 +12485,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B167" s="4" t="n">
         <v>398</v>
@@ -12529,7 +12515,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B168" s="4" t="n">
         <v>0</v>
@@ -12559,7 +12545,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B169" s="4" t="n">
         <v>729</v>
@@ -12589,7 +12575,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="4" t="n">
         <v>199</v>
@@ -12619,7 +12605,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B171" s="4" t="n">
         <v>7128</v>
@@ -12649,7 +12635,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B172" s="4" t="n">
         <v>259</v>
@@ -12679,7 +12665,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B173" s="4" t="n">
         <v>73</v>
@@ -12709,7 +12695,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B174" s="4" t="n">
         <v>32117</v>
@@ -12739,7 +12725,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B175" s="4" t="n">
         <v>16900</v>
@@ -12769,7 +12755,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" s="4" t="n">
         <v>495</v>
@@ -12799,7 +12785,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B177" s="4" t="n">
         <v>117136</v>
@@ -12829,7 +12815,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B178" s="4" t="n">
         <v>404</v>
@@ -12859,7 +12845,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B179" s="4" t="n">
         <v>13</v>
@@ -12889,7 +12875,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B180" s="4" t="n">
         <v>2712</v>
@@ -12919,7 +12905,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B181" s="4" t="n">
         <v>327</v>
@@ -12949,7 +12935,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B182" s="4" t="n">
         <v>110</v>
@@ -12979,7 +12965,7 @@
     </row>
     <row r="183" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B183" s="4" t="n">
         <v>134</v>
@@ -13009,7 +12995,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B184" s="4" t="n">
         <v>19</v>
@@ -13039,7 +13025,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B185" s="4" t="n">
         <v>3</v>
@@ -13069,7 +13055,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B186" s="4" t="n">
         <v>0</v>
@@ -13099,7 +13085,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B187" s="4" t="n">
         <v>15</v>
@@ -13129,7 +13115,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B188" s="4" t="n">
         <v>5</v>
@@ -13159,7 +13145,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B189" s="4" t="n">
         <v>5972</v>
@@ -13189,7 +13175,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B190" s="4" t="n">
         <v>6</v>
@@ -13219,7 +13205,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B191" s="4" t="n">
         <v>1237</v>
@@ -13249,7 +13235,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B192" s="4" t="n">
         <v>508571</v>
@@ -13279,7 +13265,7 @@
     </row>
     <row r="193" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B193" s="4" t="n">
         <v>14</v>
@@ -13309,7 +13295,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B194" s="4" t="n">
         <v>375</v>
@@ -13339,7 +13325,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B195" s="4" t="n">
         <v>24524</v>
@@ -13369,7 +13355,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B196" s="4" t="n">
         <v>4</v>
@@ -13399,7 +13385,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B197" s="4" t="n">
         <v>102</v>
@@ -13429,7 +13415,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B198" s="4" t="n">
         <v>5466</v>
@@ -13459,7 +13445,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B199" s="4" t="n">
         <v>223</v>
@@ -13489,7 +13475,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B200" s="4" t="n">
         <v>5714</v>
@@ -13519,7 +13505,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B201" s="4" t="n">
         <v>86749</v>
@@ -13549,7 +13535,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B202" s="4" t="n">
         <v>4</v>
@@ -13579,7 +13565,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B203" s="4" t="n">
         <v>13451</v>
@@ -13609,7 +13595,7 @@
     </row>
     <row r="204" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B204" s="4" t="n">
         <v>0</v>
@@ -13639,7 +13625,7 @@
     </row>
     <row r="205" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B205" s="4" t="n">
         <v>3</v>
@@ -13669,7 +13655,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B206" s="4" t="n">
         <v>8325</v>
@@ -13699,7 +13685,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B207" s="4" t="n">
         <v>49</v>
@@ -13729,7 +13715,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B208" s="4" t="n">
         <v>356</v>
@@ -13759,7 +13745,7 @@
     </row>
     <row r="209" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B209" s="4" t="n">
         <v>0</v>
@@ -13789,7 +13775,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B210" s="4" t="n">
         <v>60</v>
@@ -13819,7 +13805,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B211" s="4" t="n">
         <v>3473</v>
@@ -13849,7 +13835,7 @@
     </row>
     <row r="212" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B212" s="4" t="n">
         <v>0</v>
@@ -13879,7 +13865,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B213" s="4" t="n">
         <v>7586</v>
@@ -13909,7 +13895,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B214" s="4" t="n">
         <v>139</v>
@@ -13939,7 +13925,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B215" s="4" t="n">
         <v>9025</v>
@@ -13969,7 +13955,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B216" s="4" t="n">
         <v>111</v>
@@ -13999,7 +13985,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B217" s="4" t="n">
         <v>3</v>
@@ -14029,7 +14015,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B218" s="4" t="n">
         <v>3</v>
@@ -14059,7 +14045,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B219" s="4" t="n">
         <v>3566</v>
@@ -14089,7 +14075,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B220" s="4" t="n">
         <v>28579</v>
@@ -14119,7 +14105,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B221" s="4" t="n">
         <v>167</v>
@@ -14149,7 +14135,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B222" s="4" t="n">
         <v>7171</v>
@@ -14179,7 +14165,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B223" s="4" t="n">
         <v>245</v>
@@ -14209,7 +14195,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B224" s="4" t="n">
         <v>1601</v>
@@ -14239,7 +14225,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B225" s="4" t="n">
         <v>12730</v>
@@ -14269,7 +14255,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B226" s="4" t="n">
         <v>3</v>
@@ -14299,7 +14285,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B227" s="4" t="n">
         <v>2252</v>
@@ -14329,7 +14315,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B228" s="4" t="n">
         <v>1773</v>
@@ -14359,7 +14345,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B229" s="4" t="n">
         <v>528</v>
@@ -14389,7 +14375,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B230" s="4" t="n">
         <v>824</v>
@@ -14419,7 +14405,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B231" s="4" t="n">
         <v>43058</v>
@@ -14449,7 +14435,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B232" s="4" t="n">
         <v>0</v>
@@ -14479,7 +14465,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B233" s="4" t="n">
         <v>88</v>
@@ -14509,7 +14495,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B234" s="4" t="n">
         <v>7957</v>
@@ -14539,7 +14525,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B235" s="4" t="n">
         <v>977</v>
@@ -14569,7 +14555,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B236" s="4" t="n">
         <v>27</v>
@@ -14599,7 +14585,7 @@
     </row>
     <row r="237" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B237" s="4" t="n">
         <v>51</v>
@@ -14629,7 +14615,7 @@
     </row>
     <row r="238" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B238" s="4" t="n">
         <v>11</v>
@@ -14659,7 +14645,7 @@
     </row>
     <row r="239" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B239" s="4" t="n">
         <v>70</v>
@@ -14689,7 +14675,7 @@
     </row>
     <row r="240" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B240" s="4" t="n">
         <v>0</v>
@@ -14719,7 +14705,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B241" s="4" t="n">
         <v>120</v>
@@ -14749,7 +14735,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B242" s="4" t="n">
         <v>0</v>
@@ -14779,7 +14765,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B243" s="4" t="n">
         <v>6387</v>
@@ -14809,7 +14795,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B244" s="4" t="n">
         <v>0</v>
@@ -14839,7 +14825,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B245" s="4" t="n">
         <v>28732</v>
@@ -14869,7 +14855,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B246" s="4" t="n">
         <v>0</v>
@@ -14899,7 +14885,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B247" s="4" t="n">
         <v>8</v>
@@ -14929,7 +14915,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B248" s="4" t="n">
         <v>15</v>
@@ -14959,7 +14945,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B249" s="4" t="n">
         <v>12</v>
@@ -14989,7 +14975,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B250" s="4" t="n">
         <v>0</v>
@@ -15019,7 +15005,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B251" s="4" t="n">
         <v>0</v>
@@ -15049,7 +15035,7 @@
     </row>
     <row r="252" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B252" s="4" t="n">
         <v>25</v>
@@ -15079,7 +15065,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B253" s="4" t="n">
         <v>0</v>
@@ -15109,7 +15095,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B254" s="4" t="n">
         <v>5093</v>
@@ -15139,7 +15125,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B255" s="4" t="n">
         <v>35</v>
@@ -15169,7 +15155,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B256" s="4" t="n">
         <v>76</v>
@@ -15199,7 +15185,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B257" s="4" t="n">
         <v>3424</v>
@@ -15229,7 +15215,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B258" s="4" t="n">
         <v>3855</v>
@@ -15259,7 +15245,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B259" s="4" t="n">
         <v>9291</v>
@@ -15289,7 +15275,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B260" s="4" t="n">
         <v>13493</v>
@@ -15319,7 +15305,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B261" s="4" t="n">
         <v>49</v>
@@ -15349,7 +15335,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B262" s="4" t="n">
         <v>797</v>
@@ -15379,7 +15365,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B263" s="4" t="n">
         <v>26719</v>
@@ -15409,7 +15395,7 @@
     </row>
     <row r="264" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B264" s="4" t="n">
         <v>16501</v>
@@ -15439,7 +15425,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B265" s="4" t="n">
         <v>2119</v>
@@ -15469,7 +15455,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B266" s="4" t="n">
         <v>83</v>
@@ -15499,7 +15485,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B267" s="4" t="n">
         <v>271</v>
@@ -15529,7 +15515,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B268" s="4" t="n">
         <v>5843</v>
@@ -15559,7 +15545,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B269" s="4" t="n">
         <v>352</v>
@@ -15589,7 +15575,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B270" s="4" t="n">
         <v>220</v>
@@ -15619,7 +15605,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B271" s="4" t="n">
         <v>12808</v>
@@ -15649,7 +15635,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B272" s="4" t="n">
         <v>33</v>
@@ -15679,7 +15665,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B273" s="4" t="n">
         <v>0</v>
@@ -15709,7 +15695,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B274" s="4" t="n">
         <v>21</v>
@@ -15739,7 +15725,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B275" s="4" t="n">
         <v>791</v>
@@ -15769,7 +15755,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B276" s="4" t="n">
         <v>4830</v>
@@ -15799,7 +15785,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B277" s="4" t="n">
         <v>2595</v>
@@ -15829,7 +15815,7 @@
     </row>
     <row r="278" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B278" s="4" t="n">
         <v>1875</v>
@@ -15859,7 +15845,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B279" s="4" t="n">
         <v>30081</v>
@@ -15889,7 +15875,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B280" s="4" t="n">
         <v>6213</v>
@@ -15919,7 +15905,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B281" s="4" t="n">
         <v>500</v>
@@ -15949,7 +15935,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B282" s="4" t="n">
         <v>431</v>
@@ -15979,7 +15965,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B283" s="4" t="n">
         <v>1855</v>
@@ -16009,7 +15995,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B284" s="4" t="n">
         <v>84130</v>
@@ -16039,7 +16025,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B285" s="4" t="n">
         <v>10</v>
@@ -16069,7 +16055,7 @@
     </row>
     <row r="286" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B286" s="4" t="n">
         <v>3</v>
@@ -16099,7 +16085,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B287" s="4" t="n">
         <v>7256</v>
@@ -16129,7 +16115,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B288" s="4" t="n">
         <v>7</v>
@@ -16159,7 +16145,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B289" s="4" t="n">
         <v>0</v>
@@ -16189,7 +16175,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B290" s="4" t="n">
         <v>5</v>
@@ -16219,7 +16205,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B291" s="4" t="n">
         <v>230</v>
@@ -16249,7 +16235,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B292" s="4" t="n">
         <v>1106</v>
@@ -16279,7 +16265,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B293" s="4" t="n">
         <v>6495</v>
@@ -16341,23 +16327,23 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16433,7 +16419,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16443,30 +16429,30 @@
         <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>664</v>
@@ -16498,7 +16484,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>31125</v>
@@ -16530,7 +16516,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>568289</v>
@@ -16562,7 +16548,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>243659</v>
@@ -16594,7 +16580,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>415486</v>
@@ -16626,7 +16612,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>526570</v>
@@ -16658,7 +16644,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>501698</v>
@@ -16690,7 +16676,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>448014</v>
@@ -16722,7 +16708,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>450649</v>
@@ -16754,7 +16740,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>489370</v>
@@ -16786,7 +16772,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>498807</v>
@@ -16818,7 +16804,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>341092</v>
@@ -16850,7 +16836,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>290547</v>
@@ -16882,7 +16868,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>209058</v>
@@ -16914,7 +16900,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>321562</v>
@@ -16946,7 +16932,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>215643</v>
